--- a/src/test/resources/TestData/Labsquire_DLW_staging.xlsx
+++ b/src/test/resources/TestData/Labsquire_DLW_staging.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ranjith Kumar A\eclipse-workspace\EMR_Flow\src\test\resources\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09380F89-27E6-4D00-B491-CB51AD6199CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E594B62F-05D6-435F-A70C-3765E9304798}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Addcase" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="9" r:id="rId2"/>
+    <sheet name="ClinicalChemistry" sheetId="9" r:id="rId2"/>
     <sheet name="UTI_case" sheetId="8" r:id="rId3"/>
     <sheet name="Order" sheetId="2" r:id="rId4"/>
     <sheet name="Conversion" sheetId="3" r:id="rId5"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1472" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1689" uniqueCount="130">
   <si>
     <t>USERNAME_STG</t>
   </si>
@@ -279,9 +279,6 @@
     <t>Russia</t>
   </si>
   <si>
-    <t>ranjith.facility</t>
-  </si>
-  <si>
     <t>A09</t>
   </si>
   <si>
@@ -405,9 +402,6 @@
     <t>Dr Venkatesh</t>
   </si>
   <si>
-    <t>ranjithmanager</t>
-  </si>
-  <si>
     <t>TESTING ORDERING FACILITY</t>
   </si>
   <si>
@@ -415,6 +409,15 @@
   </si>
   <si>
     <t>A01.05</t>
+  </si>
+  <si>
+    <t>ranjith.manager</t>
+  </si>
+  <si>
+    <t>ranjithfacility</t>
+  </si>
+  <si>
+    <t>B81.1</t>
   </si>
 </sst>
 </file>
@@ -863,8 +866,8 @@
   </sheetPr>
   <dimension ref="A1:S22"/>
   <sheetViews>
-    <sheetView topLeftCell="P1" workbookViewId="0">
-      <selection activeCell="S2" sqref="S2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -895,13 +898,13 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>4</v>
@@ -925,7 +928,7 @@
         <v>11</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="O1" s="1" t="s">
         <v>12</v>
@@ -945,7 +948,7 @@
     </row>
     <row r="2" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B2" s="4">
         <v>123456</v>
@@ -960,7 +963,7 @@
         <v>19</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G2" s="4">
         <v>2</v>
@@ -987,10 +990,10 @@
         <v>21</v>
       </c>
       <c r="O2" s="6" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="P2" s="14" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="Q2" s="7" t="s">
         <v>23</v>
@@ -999,12 +1002,12 @@
         <v>1234567</v>
       </c>
       <c r="S2" s="7" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B3" s="4">
         <v>123456</v>
@@ -1019,7 +1022,7 @@
         <v>19</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G3" s="4">
         <v>1</v>
@@ -1046,10 +1049,10 @@
         <v>21</v>
       </c>
       <c r="O3" s="6" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="P3" s="14" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="Q3" s="6" t="s">
         <v>27</v>
@@ -1058,12 +1061,12 @@
         <v>1234456</v>
       </c>
       <c r="S3" s="7" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="4" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B4" s="4">
         <v>123456</v>
@@ -1078,7 +1081,7 @@
         <v>19</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G4" s="4">
         <v>8</v>
@@ -1105,10 +1108,10 @@
         <v>21</v>
       </c>
       <c r="O4" s="6" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="P4" s="14" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="Q4" s="6" t="s">
         <v>31</v>
@@ -1117,12 +1120,12 @@
         <v>1234345</v>
       </c>
       <c r="S4" s="7" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="5" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B5" s="4">
         <v>123456</v>
@@ -1137,7 +1140,7 @@
         <v>19</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G5" s="4">
         <v>2</v>
@@ -1164,10 +1167,10 @@
         <v>21</v>
       </c>
       <c r="O5" s="6" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="P5" s="14" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="Q5" s="6" t="s">
         <v>35</v>
@@ -1176,12 +1179,12 @@
         <v>1234234</v>
       </c>
       <c r="S5" s="7" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="6" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B6" s="4">
         <v>123456</v>
@@ -1196,7 +1199,7 @@
         <v>19</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G6" s="4">
         <v>9</v>
@@ -1223,10 +1226,10 @@
         <v>21</v>
       </c>
       <c r="O6" s="6" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="P6" s="14" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="Q6" s="6" t="s">
         <v>39</v>
@@ -1235,12 +1238,12 @@
         <v>1234123</v>
       </c>
       <c r="S6" s="7" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="7" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B7" s="4">
         <v>123456</v>
@@ -1255,7 +1258,7 @@
         <v>19</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G7" s="4">
         <v>3</v>
@@ -1282,10 +1285,10 @@
         <v>21</v>
       </c>
       <c r="O7" s="6" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="P7" s="14" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="Q7" s="6" t="s">
         <v>43</v>
@@ -1294,12 +1297,12 @@
         <v>1234012</v>
       </c>
       <c r="S7" s="7" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="8" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B8" s="4">
         <v>123456</v>
@@ -1314,7 +1317,7 @@
         <v>19</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G8" s="4">
         <v>1</v>
@@ -1341,10 +1344,10 @@
         <v>21</v>
       </c>
       <c r="O8" s="6" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="P8" s="14" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="Q8" s="7" t="s">
         <v>47</v>
@@ -1353,12 +1356,12 @@
         <v>1233901</v>
       </c>
       <c r="S8" s="7" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="9" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B9" s="4">
         <v>123456</v>
@@ -1373,7 +1376,7 @@
         <v>19</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G9" s="4">
         <v>4</v>
@@ -1400,10 +1403,10 @@
         <v>21</v>
       </c>
       <c r="O9" s="6" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="P9" s="14" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="Q9" s="6" t="s">
         <v>35</v>
@@ -1412,12 +1415,12 @@
         <v>1233790</v>
       </c>
       <c r="S9" s="7" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="10" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B10" s="4">
         <v>123456</v>
@@ -1432,7 +1435,7 @@
         <v>19</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G10" s="4">
         <v>2</v>
@@ -1459,10 +1462,10 @@
         <v>21</v>
       </c>
       <c r="O10" s="6" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="P10" s="14" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="Q10" s="7" t="s">
         <v>54</v>
@@ -1471,12 +1474,12 @@
         <v>1233679</v>
       </c>
       <c r="S10" s="7" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="11" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B11" s="4">
         <v>123456</v>
@@ -1491,7 +1494,7 @@
         <v>19</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G11" s="4">
         <v>5</v>
@@ -1518,10 +1521,10 @@
         <v>21</v>
       </c>
       <c r="O11" s="6" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="P11" s="14" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="Q11" s="6" t="s">
         <v>39</v>
@@ -1530,12 +1533,12 @@
         <v>1233568</v>
       </c>
       <c r="S11" s="7" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="12" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B12" s="4">
         <v>123456</v>
@@ -1550,7 +1553,7 @@
         <v>19</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G12" s="4">
         <v>3</v>
@@ -1577,10 +1580,10 @@
         <v>21</v>
       </c>
       <c r="O12" s="6" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="P12" s="14" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="Q12" s="7" t="s">
         <v>23</v>
@@ -1589,12 +1592,12 @@
         <v>1233457</v>
       </c>
       <c r="S12" s="7" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="13" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B13" s="4">
         <v>123456</v>
@@ -1609,7 +1612,7 @@
         <v>19</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="G13" s="4">
         <v>6</v>
@@ -1636,10 +1639,10 @@
         <v>21</v>
       </c>
       <c r="O13" s="6" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="P13" s="14" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="Q13" s="7" t="s">
         <v>54</v>
@@ -1648,12 +1651,12 @@
         <v>1233346</v>
       </c>
       <c r="S13" s="7" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="14" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B14" s="4">
         <v>123456</v>
@@ -1668,7 +1671,7 @@
         <v>19</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="G14" s="4">
         <v>4</v>
@@ -1695,10 +1698,10 @@
         <v>21</v>
       </c>
       <c r="O14" s="6" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="P14" s="14" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="Q14" s="6" t="s">
         <v>39</v>
@@ -1707,12 +1710,12 @@
         <v>1233235</v>
       </c>
       <c r="S14" s="7" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="15" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B15" s="4">
         <v>123456</v>
@@ -1727,7 +1730,7 @@
         <v>19</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="G15" s="4">
         <v>7</v>
@@ -1754,10 +1757,10 @@
         <v>21</v>
       </c>
       <c r="O15" s="6" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="P15" s="14" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="Q15" s="6" t="s">
         <v>70</v>
@@ -1766,12 +1769,12 @@
         <v>1233124</v>
       </c>
       <c r="S15" s="7" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="16" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B16" s="4">
         <v>123456</v>
@@ -1786,7 +1789,7 @@
         <v>19</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="G16" s="4">
         <v>5</v>
@@ -1813,10 +1816,10 @@
         <v>21</v>
       </c>
       <c r="O16" s="6" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="P16" s="14" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="Q16" s="6" t="s">
         <v>73</v>
@@ -1825,12 +1828,12 @@
         <v>1233013</v>
       </c>
       <c r="S16" s="7" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="17" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B17" s="4">
         <v>123456</v>
@@ -1845,7 +1848,7 @@
         <v>19</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="G17" s="4">
         <v>8</v>
@@ -1872,10 +1875,10 @@
         <v>21</v>
       </c>
       <c r="O17" s="6" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="P17" s="14" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="Q17" s="6" t="s">
         <v>43</v>
@@ -1884,12 +1887,12 @@
         <v>1232902</v>
       </c>
       <c r="S17" s="7" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="18" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B18" s="4">
         <v>123456</v>
@@ -1904,7 +1907,7 @@
         <v>19</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="G18" s="4">
         <v>6</v>
@@ -1931,10 +1934,10 @@
         <v>21</v>
       </c>
       <c r="O18" s="6" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="P18" s="14" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="Q18" s="6" t="s">
         <v>39</v>
@@ -1943,12 +1946,12 @@
         <v>1232791</v>
       </c>
       <c r="S18" s="7" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="19" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B19" s="4">
         <v>123456</v>
@@ -1963,7 +1966,7 @@
         <v>19</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="G19" s="4">
         <v>9</v>
@@ -1990,10 +1993,10 @@
         <v>21</v>
       </c>
       <c r="O19" s="6" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="P19" s="14" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="Q19" s="6" t="s">
         <v>43</v>
@@ -2002,12 +2005,12 @@
         <v>1232680</v>
       </c>
       <c r="S19" s="7" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="20" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B20" s="4">
         <v>123456</v>
@@ -2022,7 +2025,7 @@
         <v>19</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="G20" s="4">
         <v>7</v>
@@ -2049,10 +2052,10 @@
         <v>21</v>
       </c>
       <c r="O20" s="6" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="P20" s="14" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="Q20" s="6" t="s">
         <v>73</v>
@@ -2061,12 +2064,12 @@
         <v>1232569</v>
       </c>
       <c r="S20" s="7" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="21" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B21" s="4">
         <v>123456</v>
@@ -2081,7 +2084,7 @@
         <v>19</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="G21" s="4">
         <v>10</v>
@@ -2108,10 +2111,10 @@
         <v>21</v>
       </c>
       <c r="O21" s="6" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="P21" s="14" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="Q21" s="6" t="s">
         <v>31</v>
@@ -2120,7 +2123,7 @@
         <v>1232458</v>
       </c>
       <c r="S21" s="7" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="22" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2140,12 +2143,1153 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0B9FA04-F847-4E5F-BB9A-BE84F3B2C52C}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:Q22"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="Q3" sqref="Q3:Q21"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="20" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" style="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="13.5703125" style="9" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.85546875" style="9" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="37" style="9" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.5703125" style="9" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="24" bestFit="1" customWidth="1"/>
+    <col min="13" max="15" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="20" style="9" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="9.140625" style="10" bestFit="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="B2" s="4">
+        <v>123456</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2" s="4">
+        <v>2</v>
+      </c>
+      <c r="F2" s="4">
+        <v>10</v>
+      </c>
+      <c r="G2" s="4">
+        <v>1996</v>
+      </c>
+      <c r="H2" s="4">
+        <v>1111111111</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="J2" s="4">
+        <v>12345</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="M2" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="N2" s="14" t="s">
+        <v>123</v>
+      </c>
+      <c r="O2" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="P2" s="4">
+        <v>1234567</v>
+      </c>
+      <c r="Q2" s="15" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="B3" s="4">
+        <v>123456</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3" s="4">
+        <v>1</v>
+      </c>
+      <c r="F3" s="4">
+        <v>3</v>
+      </c>
+      <c r="G3" s="4">
+        <v>1997</v>
+      </c>
+      <c r="H3" s="4">
+        <v>1111122222</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="J3" s="4">
+        <v>12345</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="L3" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="M3" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="N3" s="14" t="s">
+        <v>123</v>
+      </c>
+      <c r="O3" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="P3" s="4">
+        <v>1234456</v>
+      </c>
+      <c r="Q3" s="15" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="B4" s="4">
+        <v>123456</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" s="4">
+        <v>8</v>
+      </c>
+      <c r="F4" s="4">
+        <v>4</v>
+      </c>
+      <c r="G4" s="4">
+        <v>1998</v>
+      </c>
+      <c r="H4" s="4">
+        <v>1111133333</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="J4" s="4">
+        <v>12345</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="L4" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="M4" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="N4" s="14" t="s">
+        <v>123</v>
+      </c>
+      <c r="O4" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="P4" s="4">
+        <v>1234345</v>
+      </c>
+      <c r="Q4" s="15" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="B5" s="4">
+        <v>123456</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" s="4">
+        <v>2</v>
+      </c>
+      <c r="F5" s="4">
+        <v>5</v>
+      </c>
+      <c r="G5" s="4">
+        <v>1999</v>
+      </c>
+      <c r="H5" s="4">
+        <v>1111144444</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="J5" s="4">
+        <v>12345</v>
+      </c>
+      <c r="K5" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="L5" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="M5" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="N5" s="14" t="s">
+        <v>123</v>
+      </c>
+      <c r="O5" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="P5" s="4">
+        <v>1234234</v>
+      </c>
+      <c r="Q5" s="15" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="B6" s="4">
+        <v>123456</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E6" s="4">
+        <v>9</v>
+      </c>
+      <c r="F6" s="4">
+        <v>6</v>
+      </c>
+      <c r="G6" s="4">
+        <v>2000</v>
+      </c>
+      <c r="H6" s="4">
+        <v>1111155555</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="J6" s="4">
+        <v>12345</v>
+      </c>
+      <c r="K6" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="L6" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="M6" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="N6" s="14" t="s">
+        <v>123</v>
+      </c>
+      <c r="O6" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="P6" s="4">
+        <v>1234123</v>
+      </c>
+      <c r="Q6" s="15" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="B7" s="4">
+        <v>123456</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E7" s="4">
+        <v>3</v>
+      </c>
+      <c r="F7" s="4">
+        <v>7</v>
+      </c>
+      <c r="G7" s="4">
+        <v>2001</v>
+      </c>
+      <c r="H7" s="4">
+        <v>1111166666</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="J7" s="4">
+        <v>12345</v>
+      </c>
+      <c r="K7" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="L7" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="M7" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="N7" s="14" t="s">
+        <v>123</v>
+      </c>
+      <c r="O7" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="P7" s="4">
+        <v>1234012</v>
+      </c>
+      <c r="Q7" s="15" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="B8" s="4">
+        <v>123456</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E8" s="4">
+        <v>1</v>
+      </c>
+      <c r="F8" s="4">
+        <v>8</v>
+      </c>
+      <c r="G8" s="4">
+        <v>2002</v>
+      </c>
+      <c r="H8" s="4">
+        <v>1111177777</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="J8" s="4">
+        <v>12345</v>
+      </c>
+      <c r="K8" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="L8" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="M8" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="N8" s="14" t="s">
+        <v>123</v>
+      </c>
+      <c r="O8" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="P8" s="4">
+        <v>1233901</v>
+      </c>
+      <c r="Q8" s="15" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="B9" s="4">
+        <v>123456</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E9" s="4">
+        <v>4</v>
+      </c>
+      <c r="F9" s="4">
+        <v>9</v>
+      </c>
+      <c r="G9" s="4">
+        <v>2003</v>
+      </c>
+      <c r="H9" s="4">
+        <v>1111188888</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="J9" s="4">
+        <v>12345</v>
+      </c>
+      <c r="K9" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="L9" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="M9" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="N9" s="14" t="s">
+        <v>123</v>
+      </c>
+      <c r="O9" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="P9" s="4">
+        <v>1233790</v>
+      </c>
+      <c r="Q9" s="15" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="B10" s="4">
+        <v>123456</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E10" s="4">
+        <v>2</v>
+      </c>
+      <c r="F10" s="4">
+        <v>10</v>
+      </c>
+      <c r="G10" s="4">
+        <v>2004</v>
+      </c>
+      <c r="H10" s="4">
+        <v>1111199999</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="J10" s="4">
+        <v>12345</v>
+      </c>
+      <c r="K10" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="L10" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="M10" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="N10" s="14" t="s">
+        <v>123</v>
+      </c>
+      <c r="O10" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="P10" s="4">
+        <v>1233679</v>
+      </c>
+      <c r="Q10" s="15" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="B11" s="4">
+        <v>123456</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E11" s="4">
+        <v>5</v>
+      </c>
+      <c r="F11" s="4">
+        <v>11</v>
+      </c>
+      <c r="G11" s="4">
+        <v>2005</v>
+      </c>
+      <c r="H11" s="4">
+        <v>1111211110</v>
+      </c>
+      <c r="I11" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="J11" s="4">
+        <v>12345</v>
+      </c>
+      <c r="K11" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="L11" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="M11" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="N11" s="14" t="s">
+        <v>123</v>
+      </c>
+      <c r="O11" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="P11" s="4">
+        <v>1233568</v>
+      </c>
+      <c r="Q11" s="15" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="B12" s="4">
+        <v>123456</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E12" s="4">
+        <v>3</v>
+      </c>
+      <c r="F12" s="4">
+        <v>12</v>
+      </c>
+      <c r="G12" s="4">
+        <v>2006</v>
+      </c>
+      <c r="H12" s="4">
+        <v>1111222221</v>
+      </c>
+      <c r="I12" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="J12" s="4">
+        <v>12345</v>
+      </c>
+      <c r="K12" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="L12" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="M12" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="N12" s="14" t="s">
+        <v>123</v>
+      </c>
+      <c r="O12" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="P12" s="4">
+        <v>1233457</v>
+      </c>
+      <c r="Q12" s="15" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="B13" s="4">
+        <v>123456</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E13" s="4">
+        <v>6</v>
+      </c>
+      <c r="F13" s="4">
+        <v>13</v>
+      </c>
+      <c r="G13" s="4">
+        <v>2007</v>
+      </c>
+      <c r="H13" s="4">
+        <v>1111233332</v>
+      </c>
+      <c r="I13" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="J13" s="4">
+        <v>12345</v>
+      </c>
+      <c r="K13" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="L13" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="M13" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="N13" s="14" t="s">
+        <v>123</v>
+      </c>
+      <c r="O13" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="P13" s="4">
+        <v>1233346</v>
+      </c>
+      <c r="Q13" s="15" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="B14" s="4">
+        <v>123456</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E14" s="4">
+        <v>4</v>
+      </c>
+      <c r="F14" s="4">
+        <v>14</v>
+      </c>
+      <c r="G14" s="4">
+        <v>2008</v>
+      </c>
+      <c r="H14" s="4">
+        <v>1111244443</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="J14" s="4">
+        <v>12345</v>
+      </c>
+      <c r="K14" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="L14" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="M14" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="N14" s="14" t="s">
+        <v>123</v>
+      </c>
+      <c r="O14" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="P14" s="4">
+        <v>1233235</v>
+      </c>
+      <c r="Q14" s="15" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="B15" s="4">
+        <v>123456</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E15" s="4">
+        <v>7</v>
+      </c>
+      <c r="F15" s="4">
+        <v>15</v>
+      </c>
+      <c r="G15" s="4">
+        <v>2009</v>
+      </c>
+      <c r="H15" s="4">
+        <v>1111255554</v>
+      </c>
+      <c r="I15" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="J15" s="4">
+        <v>12345</v>
+      </c>
+      <c r="K15" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="L15" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="M15" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="N15" s="14" t="s">
+        <v>123</v>
+      </c>
+      <c r="O15" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="P15" s="4">
+        <v>1233124</v>
+      </c>
+      <c r="Q15" s="15" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="B16" s="4">
+        <v>123456</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E16" s="4">
+        <v>5</v>
+      </c>
+      <c r="F16" s="4">
+        <v>16</v>
+      </c>
+      <c r="G16" s="4">
+        <v>2010</v>
+      </c>
+      <c r="H16" s="4">
+        <v>1111266665</v>
+      </c>
+      <c r="I16" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="J16" s="4">
+        <v>12345</v>
+      </c>
+      <c r="K16" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="L16" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="M16" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="N16" s="14" t="s">
+        <v>123</v>
+      </c>
+      <c r="O16" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="P16" s="4">
+        <v>1233013</v>
+      </c>
+      <c r="Q16" s="15" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="B17" s="4">
+        <v>123456</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E17" s="4">
+        <v>8</v>
+      </c>
+      <c r="F17" s="4">
+        <v>17</v>
+      </c>
+      <c r="G17" s="4">
+        <v>2011</v>
+      </c>
+      <c r="H17" s="4">
+        <v>1111277776</v>
+      </c>
+      <c r="I17" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="J17" s="4">
+        <v>12345</v>
+      </c>
+      <c r="K17" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="L17" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="M17" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="N17" s="14" t="s">
+        <v>123</v>
+      </c>
+      <c r="O17" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="P17" s="4">
+        <v>1232902</v>
+      </c>
+      <c r="Q17" s="15" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="B18" s="4">
+        <v>123456</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E18" s="4">
+        <v>6</v>
+      </c>
+      <c r="F18" s="4">
+        <v>18</v>
+      </c>
+      <c r="G18" s="4">
+        <v>2012</v>
+      </c>
+      <c r="H18" s="4">
+        <v>1111288887</v>
+      </c>
+      <c r="I18" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="J18" s="4">
+        <v>12345</v>
+      </c>
+      <c r="K18" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="L18" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="M18" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="N18" s="14" t="s">
+        <v>123</v>
+      </c>
+      <c r="O18" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="P18" s="4">
+        <v>1232791</v>
+      </c>
+      <c r="Q18" s="15" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="B19" s="4">
+        <v>123456</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E19" s="4">
+        <v>9</v>
+      </c>
+      <c r="F19" s="4">
+        <v>19</v>
+      </c>
+      <c r="G19" s="4">
+        <v>2013</v>
+      </c>
+      <c r="H19" s="4">
+        <v>1111299998</v>
+      </c>
+      <c r="I19" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="J19" s="4">
+        <v>12345</v>
+      </c>
+      <c r="K19" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="L19" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="M19" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="N19" s="14" t="s">
+        <v>123</v>
+      </c>
+      <c r="O19" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="P19" s="4">
+        <v>1232680</v>
+      </c>
+      <c r="Q19" s="15" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="B20" s="4">
+        <v>123456</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E20" s="4">
+        <v>7</v>
+      </c>
+      <c r="F20" s="4">
+        <v>20</v>
+      </c>
+      <c r="G20" s="4">
+        <v>2014</v>
+      </c>
+      <c r="H20" s="4">
+        <v>1111311109</v>
+      </c>
+      <c r="I20" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="J20" s="4">
+        <v>12345</v>
+      </c>
+      <c r="K20" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="L20" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="M20" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="N20" s="14" t="s">
+        <v>123</v>
+      </c>
+      <c r="O20" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="P20" s="4">
+        <v>1232569</v>
+      </c>
+      <c r="Q20" s="15" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="B21" s="4">
+        <v>123456</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E21" s="4">
+        <v>10</v>
+      </c>
+      <c r="F21" s="4">
+        <v>21</v>
+      </c>
+      <c r="G21" s="4">
+        <v>2015</v>
+      </c>
+      <c r="H21" s="4">
+        <v>1111322220</v>
+      </c>
+      <c r="I21" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="J21" s="4">
+        <v>12345</v>
+      </c>
+      <c r="K21" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="L21" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="M21" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="N21" s="14" t="s">
+        <v>123</v>
+      </c>
+      <c r="O21" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="P21" s="4">
+        <v>1232458</v>
+      </c>
+      <c r="Q21" s="15" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B22" s="8"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="8"/>
+      <c r="G22" s="8"/>
+      <c r="H22" s="8"/>
+      <c r="J22" s="8"/>
+      <c r="P22" s="8"/>
+      <c r="Q22" s="7"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -2176,13 +3320,13 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>4</v>
@@ -2206,7 +3350,7 @@
         <v>11</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="O1" s="1" t="s">
         <v>12</v>
@@ -2226,7 +3370,7 @@
     </row>
     <row r="2" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B2" s="4">
         <v>123456</v>
@@ -2241,7 +3385,7 @@
         <v>19</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G2" s="4">
         <v>2</v>
@@ -2271,7 +3415,7 @@
         <v>22</v>
       </c>
       <c r="P2" s="14" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="Q2" s="7" t="s">
         <v>23</v>
@@ -2280,12 +3424,12 @@
         <v>1234567</v>
       </c>
       <c r="S2" s="7" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B3" s="4">
         <v>123456</v>
@@ -2300,7 +3444,7 @@
         <v>19</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G3" s="4">
         <v>2</v>
@@ -2330,7 +3474,7 @@
         <v>22</v>
       </c>
       <c r="P3" s="14" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="Q3" s="7" t="s">
         <v>23</v>
@@ -2339,7 +3483,7 @@
         <v>1234567</v>
       </c>
       <c r="S3" s="7" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.25">
@@ -2426,8 +3570,8 @@
   </sheetPr>
   <dimension ref="A1:Q22"/>
   <sheetViews>
-    <sheetView topLeftCell="N1" workbookViewId="0">
-      <selection activeCell="Q1" sqref="Q1:Q1048576"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2502,7 +3646,7 @@
     </row>
     <row r="2" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>83</v>
+        <v>128</v>
       </c>
       <c r="B2" s="4">
         <v>123456</v>
@@ -2538,10 +3682,10 @@
         <v>21</v>
       </c>
       <c r="M2" s="6" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="N2" s="14" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="O2" s="7" t="s">
         <v>23</v>
@@ -2550,12 +3694,12 @@
         <v>1234567</v>
       </c>
       <c r="Q2" s="15" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="3" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>83</v>
+        <v>128</v>
       </c>
       <c r="B3" s="4">
         <v>123456</v>
@@ -2591,10 +3735,10 @@
         <v>21</v>
       </c>
       <c r="M3" s="6" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="N3" s="14" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="O3" s="6" t="s">
         <v>27</v>
@@ -2603,12 +3747,12 @@
         <v>1234456</v>
       </c>
       <c r="Q3" s="15" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="4" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>83</v>
+        <v>128</v>
       </c>
       <c r="B4" s="4">
         <v>123456</v>
@@ -2644,10 +3788,10 @@
         <v>21</v>
       </c>
       <c r="M4" s="6" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="N4" s="14" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="O4" s="6" t="s">
         <v>31</v>
@@ -2656,12 +3800,12 @@
         <v>1234345</v>
       </c>
       <c r="Q4" s="15" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="5" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>83</v>
+        <v>128</v>
       </c>
       <c r="B5" s="4">
         <v>123456</v>
@@ -2697,10 +3841,10 @@
         <v>21</v>
       </c>
       <c r="M5" s="6" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="N5" s="14" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="O5" s="6" t="s">
         <v>35</v>
@@ -2709,12 +3853,12 @@
         <v>1234234</v>
       </c>
       <c r="Q5" s="15" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="6" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>83</v>
+        <v>128</v>
       </c>
       <c r="B6" s="4">
         <v>123456</v>
@@ -2750,10 +3894,10 @@
         <v>21</v>
       </c>
       <c r="M6" s="6" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="N6" s="14" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="O6" s="6" t="s">
         <v>39</v>
@@ -2762,12 +3906,12 @@
         <v>1234123</v>
       </c>
       <c r="Q6" s="15" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="7" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>83</v>
+        <v>128</v>
       </c>
       <c r="B7" s="4">
         <v>123456</v>
@@ -2803,10 +3947,10 @@
         <v>21</v>
       </c>
       <c r="M7" s="6" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="N7" s="14" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="O7" s="6" t="s">
         <v>43</v>
@@ -2815,12 +3959,12 @@
         <v>1234012</v>
       </c>
       <c r="Q7" s="15" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="8" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>83</v>
+        <v>128</v>
       </c>
       <c r="B8" s="4">
         <v>123456</v>
@@ -2856,10 +4000,10 @@
         <v>21</v>
       </c>
       <c r="M8" s="6" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="N8" s="14" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>47</v>
@@ -2868,12 +4012,12 @@
         <v>1233901</v>
       </c>
       <c r="Q8" s="15" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="9" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>83</v>
+        <v>128</v>
       </c>
       <c r="B9" s="4">
         <v>123456</v>
@@ -2909,10 +4053,10 @@
         <v>21</v>
       </c>
       <c r="M9" s="6" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="N9" s="14" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="O9" s="6" t="s">
         <v>35</v>
@@ -2921,12 +4065,12 @@
         <v>1233790</v>
       </c>
       <c r="Q9" s="15" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="10" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>83</v>
+        <v>128</v>
       </c>
       <c r="B10" s="4">
         <v>123456</v>
@@ -2962,10 +4106,10 @@
         <v>21</v>
       </c>
       <c r="M10" s="6" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="N10" s="14" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>54</v>
@@ -2974,12 +4118,12 @@
         <v>1233679</v>
       </c>
       <c r="Q10" s="15" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="11" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>83</v>
+        <v>128</v>
       </c>
       <c r="B11" s="4">
         <v>123456</v>
@@ -3015,10 +4159,10 @@
         <v>21</v>
       </c>
       <c r="M11" s="6" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="N11" s="14" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="O11" s="6" t="s">
         <v>39</v>
@@ -3027,12 +4171,12 @@
         <v>1233568</v>
       </c>
       <c r="Q11" s="15" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="12" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>83</v>
+        <v>128</v>
       </c>
       <c r="B12" s="4">
         <v>123456</v>
@@ -3068,10 +4212,10 @@
         <v>21</v>
       </c>
       <c r="M12" s="6" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="N12" s="14" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>23</v>
@@ -3080,12 +4224,12 @@
         <v>1233457</v>
       </c>
       <c r="Q12" s="15" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="13" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>83</v>
+        <v>128</v>
       </c>
       <c r="B13" s="4">
         <v>123456</v>
@@ -3121,10 +4265,10 @@
         <v>21</v>
       </c>
       <c r="M13" s="6" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="N13" s="14" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>54</v>
@@ -3133,12 +4277,12 @@
         <v>1233346</v>
       </c>
       <c r="Q13" s="15" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="14" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>83</v>
+        <v>128</v>
       </c>
       <c r="B14" s="4">
         <v>123456</v>
@@ -3174,10 +4318,10 @@
         <v>21</v>
       </c>
       <c r="M14" s="6" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="N14" s="14" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="O14" s="6" t="s">
         <v>39</v>
@@ -3186,12 +4330,12 @@
         <v>1233235</v>
       </c>
       <c r="Q14" s="15" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="15" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>83</v>
+        <v>128</v>
       </c>
       <c r="B15" s="4">
         <v>123456</v>
@@ -3227,10 +4371,10 @@
         <v>21</v>
       </c>
       <c r="M15" s="6" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="N15" s="14" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="O15" s="6" t="s">
         <v>70</v>
@@ -3239,12 +4383,12 @@
         <v>1233124</v>
       </c>
       <c r="Q15" s="15" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="16" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>83</v>
+        <v>128</v>
       </c>
       <c r="B16" s="4">
         <v>123456</v>
@@ -3280,10 +4424,10 @@
         <v>21</v>
       </c>
       <c r="M16" s="6" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="N16" s="14" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="O16" s="6" t="s">
         <v>73</v>
@@ -3292,12 +4436,12 @@
         <v>1233013</v>
       </c>
       <c r="Q16" s="15" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="17" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>83</v>
+        <v>128</v>
       </c>
       <c r="B17" s="4">
         <v>123456</v>
@@ -3333,10 +4477,10 @@
         <v>21</v>
       </c>
       <c r="M17" s="6" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="N17" s="14" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="O17" s="6" t="s">
         <v>43</v>
@@ -3345,12 +4489,12 @@
         <v>1232902</v>
       </c>
       <c r="Q17" s="15" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="18" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>83</v>
+        <v>128</v>
       </c>
       <c r="B18" s="4">
         <v>123456</v>
@@ -3386,10 +4530,10 @@
         <v>21</v>
       </c>
       <c r="M18" s="6" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="N18" s="14" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="O18" s="6" t="s">
         <v>39</v>
@@ -3398,12 +4542,12 @@
         <v>1232791</v>
       </c>
       <c r="Q18" s="15" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="19" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>83</v>
+        <v>128</v>
       </c>
       <c r="B19" s="4">
         <v>123456</v>
@@ -3439,10 +4583,10 @@
         <v>21</v>
       </c>
       <c r="M19" s="6" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="N19" s="14" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="O19" s="6" t="s">
         <v>43</v>
@@ -3451,12 +4595,12 @@
         <v>1232680</v>
       </c>
       <c r="Q19" s="15" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="20" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
-        <v>83</v>
+        <v>128</v>
       </c>
       <c r="B20" s="4">
         <v>123456</v>
@@ -3492,10 +4636,10 @@
         <v>21</v>
       </c>
       <c r="M20" s="6" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="N20" s="14" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="O20" s="6" t="s">
         <v>73</v>
@@ -3504,12 +4648,12 @@
         <v>1232569</v>
       </c>
       <c r="Q20" s="15" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="21" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
-        <v>83</v>
+        <v>128</v>
       </c>
       <c r="B21" s="4">
         <v>123456</v>
@@ -3545,10 +4689,10 @@
         <v>21</v>
       </c>
       <c r="M21" s="6" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="N21" s="14" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="O21" s="6" t="s">
         <v>31</v>
@@ -3557,7 +4701,7 @@
         <v>1232458</v>
       </c>
       <c r="Q21" s="15" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="22" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3583,309 +4727,309 @@
   <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:A21"/>
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.7109375" style="10" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="26.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="23.42578125" style="11" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="25.42578125" style="10" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="29.7109375" style="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="13" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="12" t="s">
+        <v>105</v>
+      </c>
+      <c r="D1" s="12" t="s">
         <v>106</v>
-      </c>
-      <c r="D1" s="12" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B2" s="4">
         <v>123456</v>
       </c>
       <c r="C2" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>109</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B3" s="4">
         <v>123456</v>
       </c>
       <c r="C3" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="D3" s="3" t="s">
         <v>109</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B4" s="4">
         <v>123456</v>
       </c>
       <c r="C4" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="D4" s="3" t="s">
         <v>109</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B5" s="4">
         <v>123456</v>
       </c>
       <c r="C5" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="D5" s="3" t="s">
         <v>109</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B6" s="4">
         <v>123456</v>
       </c>
       <c r="C6" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="D6" s="3" t="s">
         <v>109</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B7" s="4">
         <v>123456</v>
       </c>
       <c r="C7" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="D7" s="3" t="s">
         <v>109</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B8" s="4">
         <v>123456</v>
       </c>
       <c r="C8" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="D8" s="3" t="s">
         <v>109</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B9" s="4">
         <v>123456</v>
       </c>
       <c r="C9" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="D9" s="3" t="s">
         <v>109</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B10" s="4">
         <v>123456</v>
       </c>
       <c r="C10" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="D10" s="3" t="s">
         <v>109</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B11" s="4">
         <v>123456</v>
       </c>
       <c r="C11" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="D11" s="3" t="s">
         <v>109</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B12" s="4">
         <v>123456</v>
       </c>
       <c r="C12" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="D12" s="3" t="s">
         <v>109</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B13" s="4">
         <v>123456</v>
       </c>
       <c r="C13" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="D13" s="3" t="s">
         <v>109</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B14" s="4">
         <v>123456</v>
       </c>
       <c r="C14" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="D14" s="3" t="s">
         <v>109</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B15" s="4">
         <v>123456</v>
       </c>
       <c r="C15" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="D15" s="3" t="s">
         <v>109</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B16" s="4">
         <v>123456</v>
       </c>
       <c r="C16" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="D16" s="3" t="s">
         <v>109</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B17" s="4">
         <v>123456</v>
       </c>
       <c r="C17" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="D17" s="3" t="s">
         <v>109</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B18" s="4">
         <v>123456</v>
       </c>
       <c r="C18" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="D18" s="3" t="s">
         <v>109</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B19" s="4">
         <v>123456</v>
       </c>
       <c r="C19" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="D19" s="3" t="s">
         <v>109</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B20" s="4">
         <v>123456</v>
       </c>
       <c r="C20" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="D20" s="3" t="s">
         <v>109</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B21" s="4">
         <v>123456</v>
       </c>
       <c r="C21" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="D21" s="3" t="s">
         <v>109</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>110</v>
       </c>
     </row>
   </sheetData>
@@ -3901,7 +5045,7 @@
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M1" sqref="M1:M1048576"/>
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3976,7 +5120,7 @@
     </row>
     <row r="2" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>83</v>
+        <v>128</v>
       </c>
       <c r="B2" s="4">
         <v>123456</v>
@@ -4012,10 +5156,10 @@
         <v>21</v>
       </c>
       <c r="M2" s="6" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="N2" s="14" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="O2" s="7" t="s">
         <v>23</v>
@@ -4024,12 +5168,12 @@
         <v>1234567</v>
       </c>
       <c r="Q2" s="7" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>83</v>
+        <v>128</v>
       </c>
       <c r="B3" s="4">
         <v>123456</v>
@@ -4065,10 +5209,10 @@
         <v>21</v>
       </c>
       <c r="M3" s="6" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="N3" s="14" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="O3" s="7" t="s">
         <v>27</v>
@@ -4077,12 +5221,12 @@
         <v>1234456</v>
       </c>
       <c r="Q3" s="7" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="4" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>83</v>
+        <v>128</v>
       </c>
       <c r="B4" s="4">
         <v>123456</v>
@@ -4118,10 +5262,10 @@
         <v>21</v>
       </c>
       <c r="M4" s="6" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="N4" s="14" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>31</v>
@@ -4130,12 +5274,12 @@
         <v>1234345</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="5" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>83</v>
+        <v>128</v>
       </c>
       <c r="B5" s="4">
         <v>123456</v>
@@ -4171,10 +5315,10 @@
         <v>21</v>
       </c>
       <c r="M5" s="6" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="N5" s="14" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>35</v>
@@ -4183,12 +5327,12 @@
         <v>1234234</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="6" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>83</v>
+        <v>128</v>
       </c>
       <c r="B6" s="4">
         <v>123456</v>
@@ -4224,10 +5368,10 @@
         <v>21</v>
       </c>
       <c r="M6" s="6" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="N6" s="14" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>39</v>
@@ -4236,12 +5380,12 @@
         <v>1234123</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="7" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>83</v>
+        <v>128</v>
       </c>
       <c r="B7" s="4">
         <v>123456</v>
@@ -4277,10 +5421,10 @@
         <v>21</v>
       </c>
       <c r="M7" s="6" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="N7" s="14" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>43</v>
@@ -4289,12 +5433,12 @@
         <v>1234012</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="8" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>83</v>
+        <v>128</v>
       </c>
       <c r="B8" s="4">
         <v>123456</v>
@@ -4330,10 +5474,10 @@
         <v>21</v>
       </c>
       <c r="M8" s="6" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="N8" s="14" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>47</v>
@@ -4342,12 +5486,12 @@
         <v>1233901</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="9" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>83</v>
+        <v>128</v>
       </c>
       <c r="B9" s="4">
         <v>123456</v>
@@ -4383,10 +5527,10 @@
         <v>21</v>
       </c>
       <c r="M9" s="6" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="N9" s="14" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>35</v>
@@ -4395,12 +5539,12 @@
         <v>1233790</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="10" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>83</v>
+        <v>128</v>
       </c>
       <c r="B10" s="4">
         <v>123456</v>
@@ -4436,10 +5580,10 @@
         <v>21</v>
       </c>
       <c r="M10" s="6" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="N10" s="14" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>54</v>
@@ -4448,12 +5592,12 @@
         <v>1233679</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="11" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>83</v>
+        <v>128</v>
       </c>
       <c r="B11" s="4">
         <v>123456</v>
@@ -4489,10 +5633,10 @@
         <v>21</v>
       </c>
       <c r="M11" s="6" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="N11" s="14" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>39</v>
@@ -4501,12 +5645,12 @@
         <v>1233568</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="12" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>83</v>
+        <v>128</v>
       </c>
       <c r="B12" s="4">
         <v>123456</v>
@@ -4542,10 +5686,10 @@
         <v>21</v>
       </c>
       <c r="M12" s="6" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="N12" s="14" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>23</v>
@@ -4554,12 +5698,12 @@
         <v>1233457</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="13" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>83</v>
+        <v>128</v>
       </c>
       <c r="B13" s="4">
         <v>123456</v>
@@ -4595,10 +5739,10 @@
         <v>21</v>
       </c>
       <c r="M13" s="6" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="N13" s="14" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>54</v>
@@ -4607,12 +5751,12 @@
         <v>1233346</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="14" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>83</v>
+        <v>128</v>
       </c>
       <c r="B14" s="4">
         <v>123456</v>
@@ -4648,10 +5792,10 @@
         <v>21</v>
       </c>
       <c r="M14" s="6" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="N14" s="14" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>39</v>
@@ -4660,12 +5804,12 @@
         <v>1233235</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="15" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>83</v>
+        <v>128</v>
       </c>
       <c r="B15" s="4">
         <v>123456</v>
@@ -4701,10 +5845,10 @@
         <v>21</v>
       </c>
       <c r="M15" s="6" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="N15" s="14" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>70</v>
@@ -4713,12 +5857,12 @@
         <v>1233124</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="16" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>83</v>
+        <v>128</v>
       </c>
       <c r="B16" s="4">
         <v>123456</v>
@@ -4754,10 +5898,10 @@
         <v>21</v>
       </c>
       <c r="M16" s="6" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="N16" s="14" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="O16" s="7" t="s">
         <v>73</v>
@@ -4766,12 +5910,12 @@
         <v>1233013</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="17" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>83</v>
+        <v>128</v>
       </c>
       <c r="B17" s="4">
         <v>123456</v>
@@ -4807,10 +5951,10 @@
         <v>21</v>
       </c>
       <c r="M17" s="6" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="N17" s="14" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="O17" s="7" t="s">
         <v>43</v>
@@ -4819,12 +5963,12 @@
         <v>1232902</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="18" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>83</v>
+        <v>128</v>
       </c>
       <c r="B18" s="4">
         <v>123456</v>
@@ -4860,10 +6004,10 @@
         <v>21</v>
       </c>
       <c r="M18" s="6" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="N18" s="14" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>39</v>
@@ -4872,12 +6016,12 @@
         <v>1232791</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="19" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>83</v>
+        <v>128</v>
       </c>
       <c r="B19" s="4">
         <v>123456</v>
@@ -4913,10 +6057,10 @@
         <v>21</v>
       </c>
       <c r="M19" s="6" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="N19" s="14" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>43</v>
@@ -4925,12 +6069,12 @@
         <v>1232680</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="20" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
-        <v>83</v>
+        <v>128</v>
       </c>
       <c r="B20" s="4">
         <v>123456</v>
@@ -4966,10 +6110,10 @@
         <v>21</v>
       </c>
       <c r="M20" s="6" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="N20" s="14" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="O20" s="7" t="s">
         <v>73</v>
@@ -4978,12 +6122,12 @@
         <v>1232569</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="21" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
-        <v>83</v>
+        <v>128</v>
       </c>
       <c r="B21" s="4">
         <v>123456</v>
@@ -5019,10 +6163,10 @@
         <v>21</v>
       </c>
       <c r="M21" s="6" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="N21" s="14" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>31</v>
@@ -5031,7 +6175,7 @@
         <v>1232458</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.25">
@@ -5049,8 +6193,8 @@
   </sheetPr>
   <dimension ref="A1:Q22"/>
   <sheetViews>
-    <sheetView topLeftCell="Q1" workbookViewId="0">
-      <selection activeCell="Q1" sqref="Q1:Q1048576"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E23" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5125,7 +6269,7 @@
     </row>
     <row r="2" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>83</v>
+        <v>128</v>
       </c>
       <c r="B2" s="4">
         <v>123456</v>
@@ -5161,10 +6305,10 @@
         <v>21</v>
       </c>
       <c r="M2" s="6" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="N2" s="14" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="O2" s="7" t="s">
         <v>23</v>
@@ -5173,12 +6317,12 @@
         <v>1234567</v>
       </c>
       <c r="Q2" s="15" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="3" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>83</v>
+        <v>128</v>
       </c>
       <c r="B3" s="4">
         <v>123456</v>
@@ -5214,10 +6358,10 @@
         <v>21</v>
       </c>
       <c r="M3" s="6" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="N3" s="14" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="O3" s="6" t="s">
         <v>27</v>
@@ -5226,12 +6370,12 @@
         <v>1234456</v>
       </c>
       <c r="Q3" s="15" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="4" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>83</v>
+        <v>128</v>
       </c>
       <c r="B4" s="4">
         <v>123456</v>
@@ -5267,10 +6411,10 @@
         <v>21</v>
       </c>
       <c r="M4" s="6" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="N4" s="14" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="O4" s="6" t="s">
         <v>31</v>
@@ -5279,12 +6423,12 @@
         <v>1234345</v>
       </c>
       <c r="Q4" s="15" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="5" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>83</v>
+        <v>128</v>
       </c>
       <c r="B5" s="4">
         <v>123456</v>
@@ -5320,10 +6464,10 @@
         <v>21</v>
       </c>
       <c r="M5" s="6" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="N5" s="14" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="O5" s="6" t="s">
         <v>35</v>
@@ -5332,12 +6476,12 @@
         <v>1234234</v>
       </c>
       <c r="Q5" s="15" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="6" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>83</v>
+        <v>128</v>
       </c>
       <c r="B6" s="4">
         <v>123456</v>
@@ -5373,10 +6517,10 @@
         <v>21</v>
       </c>
       <c r="M6" s="6" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="N6" s="14" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="O6" s="6" t="s">
         <v>39</v>
@@ -5385,12 +6529,12 @@
         <v>1234123</v>
       </c>
       <c r="Q6" s="15" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="7" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>83</v>
+        <v>128</v>
       </c>
       <c r="B7" s="4">
         <v>123456</v>
@@ -5426,10 +6570,10 @@
         <v>21</v>
       </c>
       <c r="M7" s="6" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="N7" s="14" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="O7" s="6" t="s">
         <v>43</v>
@@ -5438,12 +6582,12 @@
         <v>1234012</v>
       </c>
       <c r="Q7" s="15" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="8" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>83</v>
+        <v>128</v>
       </c>
       <c r="B8" s="4">
         <v>123456</v>
@@ -5479,10 +6623,10 @@
         <v>21</v>
       </c>
       <c r="M8" s="6" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="N8" s="14" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>47</v>
@@ -5491,12 +6635,12 @@
         <v>1233901</v>
       </c>
       <c r="Q8" s="15" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="9" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>83</v>
+        <v>128</v>
       </c>
       <c r="B9" s="4">
         <v>123456</v>
@@ -5532,10 +6676,10 @@
         <v>21</v>
       </c>
       <c r="M9" s="6" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="N9" s="14" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="O9" s="6" t="s">
         <v>35</v>
@@ -5544,12 +6688,12 @@
         <v>1233790</v>
       </c>
       <c r="Q9" s="15" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="10" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>83</v>
+        <v>128</v>
       </c>
       <c r="B10" s="4">
         <v>123456</v>
@@ -5585,10 +6729,10 @@
         <v>21</v>
       </c>
       <c r="M10" s="6" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="N10" s="14" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>54</v>
@@ -5597,12 +6741,12 @@
         <v>1233679</v>
       </c>
       <c r="Q10" s="15" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="11" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>83</v>
+        <v>128</v>
       </c>
       <c r="B11" s="4">
         <v>123456</v>
@@ -5638,10 +6782,10 @@
         <v>21</v>
       </c>
       <c r="M11" s="6" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="N11" s="14" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="O11" s="6" t="s">
         <v>39</v>
@@ -5650,12 +6794,12 @@
         <v>1233568</v>
       </c>
       <c r="Q11" s="15" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="12" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>83</v>
+        <v>128</v>
       </c>
       <c r="B12" s="4">
         <v>123456</v>
@@ -5691,10 +6835,10 @@
         <v>21</v>
       </c>
       <c r="M12" s="6" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="N12" s="14" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>23</v>
@@ -5703,12 +6847,12 @@
         <v>1233457</v>
       </c>
       <c r="Q12" s="15" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="13" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>83</v>
+        <v>128</v>
       </c>
       <c r="B13" s="4">
         <v>123456</v>
@@ -5744,10 +6888,10 @@
         <v>21</v>
       </c>
       <c r="M13" s="6" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="N13" s="14" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>54</v>
@@ -5756,12 +6900,12 @@
         <v>1233346</v>
       </c>
       <c r="Q13" s="15" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="14" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>83</v>
+        <v>128</v>
       </c>
       <c r="B14" s="4">
         <v>123456</v>
@@ -5797,10 +6941,10 @@
         <v>21</v>
       </c>
       <c r="M14" s="6" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="N14" s="14" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="O14" s="6" t="s">
         <v>39</v>
@@ -5809,12 +6953,12 @@
         <v>1233235</v>
       </c>
       <c r="Q14" s="15" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="15" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>83</v>
+        <v>128</v>
       </c>
       <c r="B15" s="4">
         <v>123456</v>
@@ -5850,10 +6994,10 @@
         <v>21</v>
       </c>
       <c r="M15" s="6" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="N15" s="14" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="O15" s="6" t="s">
         <v>70</v>
@@ -5862,12 +7006,12 @@
         <v>1233124</v>
       </c>
       <c r="Q15" s="15" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="16" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>83</v>
+        <v>128</v>
       </c>
       <c r="B16" s="4">
         <v>123456</v>
@@ -5903,10 +7047,10 @@
         <v>21</v>
       </c>
       <c r="M16" s="6" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="N16" s="14" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="O16" s="6" t="s">
         <v>73</v>
@@ -5915,12 +7059,12 @@
         <v>1233013</v>
       </c>
       <c r="Q16" s="15" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="17" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>83</v>
+        <v>128</v>
       </c>
       <c r="B17" s="4">
         <v>123456</v>
@@ -5956,10 +7100,10 @@
         <v>21</v>
       </c>
       <c r="M17" s="6" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="N17" s="14" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="O17" s="6" t="s">
         <v>43</v>
@@ -5968,12 +7112,12 @@
         <v>1232902</v>
       </c>
       <c r="Q17" s="15" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="18" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>83</v>
+        <v>128</v>
       </c>
       <c r="B18" s="4">
         <v>123456</v>
@@ -6009,10 +7153,10 @@
         <v>21</v>
       </c>
       <c r="M18" s="6" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="N18" s="14" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="O18" s="6" t="s">
         <v>39</v>
@@ -6021,12 +7165,12 @@
         <v>1232791</v>
       </c>
       <c r="Q18" s="15" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="19" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>83</v>
+        <v>128</v>
       </c>
       <c r="B19" s="4">
         <v>123456</v>
@@ -6062,10 +7206,10 @@
         <v>21</v>
       </c>
       <c r="M19" s="6" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="N19" s="14" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="O19" s="6" t="s">
         <v>43</v>
@@ -6074,12 +7218,12 @@
         <v>1232680</v>
       </c>
       <c r="Q19" s="15" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="20" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
-        <v>83</v>
+        <v>128</v>
       </c>
       <c r="B20" s="4">
         <v>123456</v>
@@ -6115,10 +7259,10 @@
         <v>21</v>
       </c>
       <c r="M20" s="6" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="N20" s="14" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="O20" s="6" t="s">
         <v>73</v>
@@ -6127,12 +7271,12 @@
         <v>1232569</v>
       </c>
       <c r="Q20" s="15" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="21" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
-        <v>83</v>
+        <v>128</v>
       </c>
       <c r="B21" s="4">
         <v>123456</v>
@@ -6168,10 +7312,10 @@
         <v>21</v>
       </c>
       <c r="M21" s="6" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="N21" s="14" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="O21" s="6" t="s">
         <v>31</v>
@@ -6180,7 +7324,7 @@
         <v>1232458</v>
       </c>
       <c r="Q21" s="15" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="22" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6205,8 +7349,8 @@
   </sheetPr>
   <dimension ref="A1:Q22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q2" sqref="Q2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6280,7 +7424,7 @@
     </row>
     <row r="2" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>83</v>
+        <v>128</v>
       </c>
       <c r="B2" s="4">
         <v>123456</v>
@@ -6316,10 +7460,10 @@
         <v>21</v>
       </c>
       <c r="M2" s="6" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="N2" s="14" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="O2" s="7" t="s">
         <v>23</v>
@@ -6328,12 +7472,12 @@
         <v>1234567</v>
       </c>
       <c r="Q2" s="7" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="3" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>83</v>
+        <v>128</v>
       </c>
       <c r="B3" s="4">
         <v>123456</v>
@@ -6369,10 +7513,10 @@
         <v>21</v>
       </c>
       <c r="M3" s="6" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="N3" s="14" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="O3" s="7" t="s">
         <v>27</v>
@@ -6381,12 +7525,12 @@
         <v>1234456</v>
       </c>
       <c r="Q3" s="7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="4" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>83</v>
+        <v>128</v>
       </c>
       <c r="B4" s="4">
         <v>123456</v>
@@ -6422,10 +7566,10 @@
         <v>21</v>
       </c>
       <c r="M4" s="6" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="N4" s="14" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>31</v>
@@ -6434,12 +7578,12 @@
         <v>1234345</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="5" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>83</v>
+        <v>128</v>
       </c>
       <c r="B5" s="4">
         <v>123456</v>
@@ -6475,10 +7619,10 @@
         <v>21</v>
       </c>
       <c r="M5" s="6" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="N5" s="14" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>35</v>
@@ -6487,12 +7631,12 @@
         <v>1234234</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="6" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>83</v>
+        <v>128</v>
       </c>
       <c r="B6" s="4">
         <v>123456</v>
@@ -6528,10 +7672,10 @@
         <v>21</v>
       </c>
       <c r="M6" s="6" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="N6" s="14" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>39</v>
@@ -6540,12 +7684,12 @@
         <v>1234123</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="7" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>83</v>
+        <v>128</v>
       </c>
       <c r="B7" s="4">
         <v>123456</v>
@@ -6581,10 +7725,10 @@
         <v>21</v>
       </c>
       <c r="M7" s="6" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="N7" s="14" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>43</v>
@@ -6593,12 +7737,12 @@
         <v>1234012</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="8" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>83</v>
+        <v>128</v>
       </c>
       <c r="B8" s="4">
         <v>123456</v>
@@ -6634,10 +7778,10 @@
         <v>21</v>
       </c>
       <c r="M8" s="6" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="N8" s="14" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>47</v>
@@ -6646,12 +7790,12 @@
         <v>1233901</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="9" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>83</v>
+        <v>128</v>
       </c>
       <c r="B9" s="4">
         <v>123456</v>
@@ -6687,10 +7831,10 @@
         <v>21</v>
       </c>
       <c r="M9" s="6" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="N9" s="14" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>35</v>
@@ -6699,12 +7843,12 @@
         <v>1233790</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="10" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>83</v>
+        <v>128</v>
       </c>
       <c r="B10" s="4">
         <v>123456</v>
@@ -6740,10 +7884,10 @@
         <v>21</v>
       </c>
       <c r="M10" s="6" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="N10" s="14" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>54</v>
@@ -6752,12 +7896,12 @@
         <v>1233679</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="11" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>83</v>
+        <v>128</v>
       </c>
       <c r="B11" s="4">
         <v>123456</v>
@@ -6793,10 +7937,10 @@
         <v>21</v>
       </c>
       <c r="M11" s="6" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="N11" s="14" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>39</v>
@@ -6805,12 +7949,12 @@
         <v>1233568</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="12" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>83</v>
+        <v>128</v>
       </c>
       <c r="B12" s="4">
         <v>123456</v>
@@ -6846,10 +7990,10 @@
         <v>21</v>
       </c>
       <c r="M12" s="6" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="N12" s="14" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>23</v>
@@ -6858,12 +8002,12 @@
         <v>1233457</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="13" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>83</v>
+        <v>128</v>
       </c>
       <c r="B13" s="4">
         <v>123456</v>
@@ -6899,10 +8043,10 @@
         <v>21</v>
       </c>
       <c r="M13" s="6" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="N13" s="14" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>54</v>
@@ -6911,12 +8055,12 @@
         <v>1233346</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="14" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>83</v>
+        <v>128</v>
       </c>
       <c r="B14" s="4">
         <v>123456</v>
@@ -6952,10 +8096,10 @@
         <v>21</v>
       </c>
       <c r="M14" s="6" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="N14" s="14" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>39</v>
@@ -6964,12 +8108,12 @@
         <v>1233235</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="15" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>83</v>
+        <v>128</v>
       </c>
       <c r="B15" s="4">
         <v>123456</v>
@@ -7005,10 +8149,10 @@
         <v>21</v>
       </c>
       <c r="M15" s="6" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="N15" s="14" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>70</v>
@@ -7017,12 +8161,12 @@
         <v>1233124</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="16" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>83</v>
+        <v>128</v>
       </c>
       <c r="B16" s="4">
         <v>123456</v>
@@ -7058,10 +8202,10 @@
         <v>21</v>
       </c>
       <c r="M16" s="6" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="N16" s="14" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="O16" s="7" t="s">
         <v>73</v>
@@ -7070,12 +8214,12 @@
         <v>1233013</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="17" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>83</v>
+        <v>128</v>
       </c>
       <c r="B17" s="4">
         <v>123456</v>
@@ -7111,10 +8255,10 @@
         <v>21</v>
       </c>
       <c r="M17" s="6" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="N17" s="14" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="O17" s="7" t="s">
         <v>43</v>
@@ -7123,12 +8267,12 @@
         <v>1232902</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="18" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>83</v>
+        <v>128</v>
       </c>
       <c r="B18" s="4">
         <v>123456</v>
@@ -7164,10 +8308,10 @@
         <v>21</v>
       </c>
       <c r="M18" s="6" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="N18" s="14" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>39</v>
@@ -7176,12 +8320,12 @@
         <v>1232791</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="19" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>83</v>
+        <v>128</v>
       </c>
       <c r="B19" s="4">
         <v>123456</v>
@@ -7217,10 +8361,10 @@
         <v>21</v>
       </c>
       <c r="M19" s="6" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="N19" s="14" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>43</v>
@@ -7229,12 +8373,12 @@
         <v>1232680</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="20" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
-        <v>83</v>
+        <v>128</v>
       </c>
       <c r="B20" s="4">
         <v>123456</v>
@@ -7270,10 +8414,10 @@
         <v>21</v>
       </c>
       <c r="M20" s="6" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="N20" s="14" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="O20" s="7" t="s">
         <v>73</v>
@@ -7282,12 +8426,12 @@
         <v>1232569</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="21" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
-        <v>83</v>
+        <v>128</v>
       </c>
       <c r="B21" s="4">
         <v>123456</v>
@@ -7323,10 +8467,10 @@
         <v>21</v>
       </c>
       <c r="M21" s="6" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="N21" s="14" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>31</v>
@@ -7335,7 +8479,7 @@
         <v>1232458</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="22" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -7361,7 +8505,7 @@
   <dimension ref="A1:R22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M1" sqref="M1:M1048576"/>
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7438,7 +8582,7 @@
     </row>
     <row r="2" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>83</v>
+        <v>128</v>
       </c>
       <c r="B2" s="4">
         <v>123456</v>
@@ -7474,10 +8618,10 @@
         <v>21</v>
       </c>
       <c r="M2" s="6" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="N2" s="14" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="O2" s="7" t="s">
         <v>23</v>
@@ -7494,7 +8638,7 @@
     </row>
     <row r="3" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>83</v>
+        <v>128</v>
       </c>
       <c r="B3" s="4">
         <v>123456</v>
@@ -7530,10 +8674,10 @@
         <v>21</v>
       </c>
       <c r="M3" s="6" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="N3" s="14" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="O3" s="7" t="s">
         <v>27</v>
@@ -7550,7 +8694,7 @@
     </row>
     <row r="4" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>83</v>
+        <v>128</v>
       </c>
       <c r="B4" s="4">
         <v>123456</v>
@@ -7586,10 +8730,10 @@
         <v>21</v>
       </c>
       <c r="M4" s="6" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="N4" s="14" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>31</v>
@@ -7606,7 +8750,7 @@
     </row>
     <row r="5" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>83</v>
+        <v>128</v>
       </c>
       <c r="B5" s="4">
         <v>123456</v>
@@ -7642,10 +8786,10 @@
         <v>21</v>
       </c>
       <c r="M5" s="6" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="N5" s="14" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>35</v>
@@ -7662,7 +8806,7 @@
     </row>
     <row r="6" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>83</v>
+        <v>128</v>
       </c>
       <c r="B6" s="4">
         <v>123456</v>
@@ -7698,10 +8842,10 @@
         <v>21</v>
       </c>
       <c r="M6" s="6" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="N6" s="14" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>39</v>
@@ -7718,7 +8862,7 @@
     </row>
     <row r="7" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>83</v>
+        <v>128</v>
       </c>
       <c r="B7" s="4">
         <v>123456</v>
@@ -7754,10 +8898,10 @@
         <v>21</v>
       </c>
       <c r="M7" s="6" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="N7" s="14" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>43</v>
@@ -7774,7 +8918,7 @@
     </row>
     <row r="8" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>83</v>
+        <v>128</v>
       </c>
       <c r="B8" s="4">
         <v>123456</v>
@@ -7810,10 +8954,10 @@
         <v>21</v>
       </c>
       <c r="M8" s="6" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="N8" s="14" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>47</v>
@@ -7830,7 +8974,7 @@
     </row>
     <row r="9" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>83</v>
+        <v>128</v>
       </c>
       <c r="B9" s="4">
         <v>123456</v>
@@ -7866,10 +9010,10 @@
         <v>21</v>
       </c>
       <c r="M9" s="6" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="N9" s="14" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>35</v>
@@ -7886,7 +9030,7 @@
     </row>
     <row r="10" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>83</v>
+        <v>128</v>
       </c>
       <c r="B10" s="4">
         <v>123456</v>
@@ -7922,10 +9066,10 @@
         <v>21</v>
       </c>
       <c r="M10" s="6" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="N10" s="14" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>54</v>
@@ -7942,7 +9086,7 @@
     </row>
     <row r="11" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>83</v>
+        <v>128</v>
       </c>
       <c r="B11" s="4">
         <v>123456</v>
@@ -7978,10 +9122,10 @@
         <v>21</v>
       </c>
       <c r="M11" s="6" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="N11" s="14" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>39</v>
@@ -7998,7 +9142,7 @@
     </row>
     <row r="12" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>83</v>
+        <v>128</v>
       </c>
       <c r="B12" s="4">
         <v>123456</v>
@@ -8034,10 +9178,10 @@
         <v>21</v>
       </c>
       <c r="M12" s="6" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="N12" s="14" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>23</v>
@@ -8054,7 +9198,7 @@
     </row>
     <row r="13" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>83</v>
+        <v>128</v>
       </c>
       <c r="B13" s="4">
         <v>123456</v>
@@ -8090,10 +9234,10 @@
         <v>21</v>
       </c>
       <c r="M13" s="6" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="N13" s="14" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>54</v>
@@ -8110,7 +9254,7 @@
     </row>
     <row r="14" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>83</v>
+        <v>128</v>
       </c>
       <c r="B14" s="4">
         <v>123456</v>
@@ -8146,10 +9290,10 @@
         <v>21</v>
       </c>
       <c r="M14" s="6" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="N14" s="14" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>39</v>
@@ -8166,7 +9310,7 @@
     </row>
     <row r="15" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>83</v>
+        <v>128</v>
       </c>
       <c r="B15" s="4">
         <v>123456</v>
@@ -8202,10 +9346,10 @@
         <v>21</v>
       </c>
       <c r="M15" s="6" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="N15" s="14" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>70</v>
@@ -8222,7 +9366,7 @@
     </row>
     <row r="16" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>83</v>
+        <v>128</v>
       </c>
       <c r="B16" s="4">
         <v>123456</v>
@@ -8258,10 +9402,10 @@
         <v>21</v>
       </c>
       <c r="M16" s="6" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="N16" s="14" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="O16" s="7" t="s">
         <v>73</v>
@@ -8278,7 +9422,7 @@
     </row>
     <row r="17" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>83</v>
+        <v>128</v>
       </c>
       <c r="B17" s="4">
         <v>123456</v>
@@ -8314,10 +9458,10 @@
         <v>21</v>
       </c>
       <c r="M17" s="6" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="N17" s="14" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="O17" s="7" t="s">
         <v>43</v>
@@ -8334,7 +9478,7 @@
     </row>
     <row r="18" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>83</v>
+        <v>128</v>
       </c>
       <c r="B18" s="4">
         <v>123456</v>
@@ -8370,10 +9514,10 @@
         <v>21</v>
       </c>
       <c r="M18" s="6" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="N18" s="14" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>39</v>
@@ -8390,7 +9534,7 @@
     </row>
     <row r="19" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>83</v>
+        <v>128</v>
       </c>
       <c r="B19" s="4">
         <v>123456</v>
@@ -8426,10 +9570,10 @@
         <v>21</v>
       </c>
       <c r="M19" s="6" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="N19" s="14" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>43</v>
@@ -8446,7 +9590,7 @@
     </row>
     <row r="20" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
-        <v>83</v>
+        <v>128</v>
       </c>
       <c r="B20" s="4">
         <v>123456</v>
@@ -8482,10 +9626,10 @@
         <v>21</v>
       </c>
       <c r="M20" s="6" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="N20" s="14" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="O20" s="7" t="s">
         <v>73</v>
@@ -8502,7 +9646,7 @@
     </row>
     <row r="21" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
-        <v>83</v>
+        <v>128</v>
       </c>
       <c r="B21" s="4">
         <v>123456</v>
@@ -8538,10 +9682,10 @@
         <v>21</v>
       </c>
       <c r="M21" s="6" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="N21" s="14" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>31</v>

--- a/src/test/resources/TestData/Labsquire_DLW_staging.xlsx
+++ b/src/test/resources/TestData/Labsquire_DLW_staging.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ranjith Kumar A\eclipse-workspace\EMR_Flow\src\test\resources\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E594B62F-05D6-435F-A70C-3765E9304798}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90724345-93DD-43B6-A152-33EA272BCD09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Addcase" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1689" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2013" uniqueCount="129">
   <si>
     <t>USERNAME_STG</t>
   </si>
@@ -96,9 +96,6 @@
     <t>03-10-2025  22:30:00 PM</t>
   </si>
   <si>
-    <t>TEST ORDERING FACILITY</t>
-  </si>
-  <si>
     <t>Absolute Total Care</t>
   </si>
   <si>
@@ -351,9 +348,6 @@
     <t>REASON</t>
   </si>
   <si>
-    <t>ranjith.lab</t>
-  </si>
-  <si>
     <t>Covid test</t>
   </si>
   <si>
@@ -418,13 +412,16 @@
   </si>
   <si>
     <t>B81.1</t>
+  </si>
+  <si>
+    <t>TESTING ORDERING FACILITY-NEW YORK</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -467,6 +464,12 @@
       <color rgb="FF1F1F1F"/>
       <name val="Courier New"/>
       <family val="3"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -898,13 +901,13 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>4</v>
@@ -928,7 +931,7 @@
         <v>11</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="O1" s="1" t="s">
         <v>12</v>
@@ -948,7 +951,7 @@
     </row>
     <row r="2" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B2" s="4">
         <v>123456</v>
@@ -963,7 +966,7 @@
         <v>19</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="G2" s="4">
         <v>2</v>
@@ -990,24 +993,24 @@
         <v>21</v>
       </c>
       <c r="O2" s="6" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="P2" s="14" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="Q2" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="R2" s="4">
         <v>1234567</v>
       </c>
       <c r="S2" s="7" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="3" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B3" s="4">
         <v>123456</v>
@@ -1022,7 +1025,7 @@
         <v>19</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="G3" s="4">
         <v>1</v>
@@ -1037,36 +1040,36 @@
         <v>1111122222</v>
       </c>
       <c r="K3" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="L3" s="4">
+        <v>12345</v>
+      </c>
+      <c r="M3" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N3" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="O3" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="P3" s="14" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q3" s="6" t="s">
         <v>26</v>
-      </c>
-      <c r="L3" s="4">
-        <v>12345</v>
-      </c>
-      <c r="M3" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="N3" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="O3" s="6" t="s">
-        <v>124</v>
-      </c>
-      <c r="P3" s="14" t="s">
-        <v>123</v>
-      </c>
-      <c r="Q3" s="6" t="s">
-        <v>27</v>
       </c>
       <c r="R3" s="4">
         <v>1234456</v>
       </c>
       <c r="S3" s="7" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="4" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B4" s="4">
         <v>123456</v>
@@ -1081,7 +1084,7 @@
         <v>19</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="G4" s="4">
         <v>8</v>
@@ -1096,36 +1099,36 @@
         <v>1111133333</v>
       </c>
       <c r="K4" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="L4" s="4">
+        <v>12345</v>
+      </c>
+      <c r="M4" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N4" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="O4" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="P4" s="14" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q4" s="6" t="s">
         <v>30</v>
-      </c>
-      <c r="L4" s="4">
-        <v>12345</v>
-      </c>
-      <c r="M4" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="N4" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="O4" s="6" t="s">
-        <v>124</v>
-      </c>
-      <c r="P4" s="14" t="s">
-        <v>123</v>
-      </c>
-      <c r="Q4" s="6" t="s">
-        <v>31</v>
       </c>
       <c r="R4" s="4">
         <v>1234345</v>
       </c>
       <c r="S4" s="7" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="5" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B5" s="4">
         <v>123456</v>
@@ -1140,7 +1143,7 @@
         <v>19</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="G5" s="4">
         <v>2</v>
@@ -1155,36 +1158,36 @@
         <v>1111144444</v>
       </c>
       <c r="K5" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="L5" s="4">
+        <v>12345</v>
+      </c>
+      <c r="M5" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N5" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="O5" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="P5" s="14" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q5" s="6" t="s">
         <v>34</v>
-      </c>
-      <c r="L5" s="4">
-        <v>12345</v>
-      </c>
-      <c r="M5" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="N5" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="O5" s="6" t="s">
-        <v>124</v>
-      </c>
-      <c r="P5" s="14" t="s">
-        <v>123</v>
-      </c>
-      <c r="Q5" s="6" t="s">
-        <v>35</v>
       </c>
       <c r="R5" s="4">
         <v>1234234</v>
       </c>
       <c r="S5" s="7" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="6" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B6" s="4">
         <v>123456</v>
@@ -1199,7 +1202,7 @@
         <v>19</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="G6" s="4">
         <v>9</v>
@@ -1214,36 +1217,36 @@
         <v>1111155555</v>
       </c>
       <c r="K6" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="L6" s="4">
+        <v>12345</v>
+      </c>
+      <c r="M6" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N6" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="O6" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="P6" s="14" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q6" s="6" t="s">
         <v>38</v>
-      </c>
-      <c r="L6" s="4">
-        <v>12345</v>
-      </c>
-      <c r="M6" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="N6" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="O6" s="6" t="s">
-        <v>124</v>
-      </c>
-      <c r="P6" s="14" t="s">
-        <v>123</v>
-      </c>
-      <c r="Q6" s="6" t="s">
-        <v>39</v>
       </c>
       <c r="R6" s="4">
         <v>1234123</v>
       </c>
       <c r="S6" s="7" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="7" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B7" s="4">
         <v>123456</v>
@@ -1258,7 +1261,7 @@
         <v>19</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="G7" s="4">
         <v>3</v>
@@ -1273,36 +1276,36 @@
         <v>1111166666</v>
       </c>
       <c r="K7" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="L7" s="4">
+        <v>12345</v>
+      </c>
+      <c r="M7" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N7" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="O7" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="P7" s="14" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q7" s="6" t="s">
         <v>42</v>
-      </c>
-      <c r="L7" s="4">
-        <v>12345</v>
-      </c>
-      <c r="M7" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="N7" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="O7" s="6" t="s">
-        <v>124</v>
-      </c>
-      <c r="P7" s="14" t="s">
-        <v>123</v>
-      </c>
-      <c r="Q7" s="6" t="s">
-        <v>43</v>
       </c>
       <c r="R7" s="4">
         <v>1234012</v>
       </c>
       <c r="S7" s="7" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="8" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B8" s="4">
         <v>123456</v>
@@ -1317,7 +1320,7 @@
         <v>19</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="G8" s="4">
         <v>1</v>
@@ -1332,36 +1335,36 @@
         <v>1111177777</v>
       </c>
       <c r="K8" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="L8" s="4">
+        <v>12345</v>
+      </c>
+      <c r="M8" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N8" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="O8" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="P8" s="14" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>46</v>
-      </c>
-      <c r="L8" s="4">
-        <v>12345</v>
-      </c>
-      <c r="M8" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="N8" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="O8" s="6" t="s">
-        <v>124</v>
-      </c>
-      <c r="P8" s="14" t="s">
-        <v>123</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>47</v>
       </c>
       <c r="R8" s="4">
         <v>1233901</v>
       </c>
       <c r="S8" s="7" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="9" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B9" s="4">
         <v>123456</v>
@@ -1376,7 +1379,7 @@
         <v>19</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="G9" s="4">
         <v>4</v>
@@ -1391,7 +1394,7 @@
         <v>1111188888</v>
       </c>
       <c r="K9" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L9" s="4">
         <v>12345</v>
@@ -1403,24 +1406,24 @@
         <v>21</v>
       </c>
       <c r="O9" s="6" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="P9" s="14" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="Q9" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="R9" s="4">
         <v>1233790</v>
       </c>
       <c r="S9" s="7" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="10" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B10" s="4">
         <v>123456</v>
@@ -1435,7 +1438,7 @@
         <v>19</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="G10" s="4">
         <v>2</v>
@@ -1450,36 +1453,36 @@
         <v>1111199999</v>
       </c>
       <c r="K10" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="L10" s="4">
+        <v>12345</v>
+      </c>
+      <c r="M10" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N10" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="O10" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="P10" s="14" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>53</v>
-      </c>
-      <c r="L10" s="4">
-        <v>12345</v>
-      </c>
-      <c r="M10" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="N10" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="O10" s="6" t="s">
-        <v>124</v>
-      </c>
-      <c r="P10" s="14" t="s">
-        <v>123</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>54</v>
       </c>
       <c r="R10" s="4">
         <v>1233679</v>
       </c>
       <c r="S10" s="7" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="11" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B11" s="4">
         <v>123456</v>
@@ -1494,7 +1497,7 @@
         <v>19</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="G11" s="4">
         <v>5</v>
@@ -1509,7 +1512,7 @@
         <v>1111211110</v>
       </c>
       <c r="K11" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="L11" s="4">
         <v>12345</v>
@@ -1521,24 +1524,24 @@
         <v>21</v>
       </c>
       <c r="O11" s="6" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="P11" s="14" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="Q11" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="R11" s="4">
         <v>1233568</v>
       </c>
       <c r="S11" s="7" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="12" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B12" s="4">
         <v>123456</v>
@@ -1553,7 +1556,7 @@
         <v>19</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="G12" s="4">
         <v>3</v>
@@ -1568,7 +1571,7 @@
         <v>1111222221</v>
       </c>
       <c r="K12" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L12" s="4">
         <v>12345</v>
@@ -1580,24 +1583,24 @@
         <v>21</v>
       </c>
       <c r="O12" s="6" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="P12" s="14" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="R12" s="4">
         <v>1233457</v>
       </c>
       <c r="S12" s="7" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="13" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B13" s="4">
         <v>123456</v>
@@ -1612,7 +1615,7 @@
         <v>19</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="G13" s="4">
         <v>6</v>
@@ -1627,7 +1630,7 @@
         <v>1111233332</v>
       </c>
       <c r="K13" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="L13" s="4">
         <v>12345</v>
@@ -1639,24 +1642,24 @@
         <v>21</v>
       </c>
       <c r="O13" s="6" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="P13" s="14" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="R13" s="4">
         <v>1233346</v>
       </c>
       <c r="S13" s="7" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="14" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B14" s="4">
         <v>123456</v>
@@ -1671,7 +1674,7 @@
         <v>19</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="G14" s="4">
         <v>4</v>
@@ -1686,7 +1689,7 @@
         <v>1111244443</v>
       </c>
       <c r="K14" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="L14" s="4">
         <v>12345</v>
@@ -1698,24 +1701,24 @@
         <v>21</v>
       </c>
       <c r="O14" s="6" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="P14" s="14" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="Q14" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="R14" s="4">
         <v>1233235</v>
       </c>
       <c r="S14" s="7" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="15" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B15" s="4">
         <v>123456</v>
@@ -1730,7 +1733,7 @@
         <v>19</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="G15" s="4">
         <v>7</v>
@@ -1745,36 +1748,36 @@
         <v>1111255554</v>
       </c>
       <c r="K15" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="L15" s="4">
+        <v>12345</v>
+      </c>
+      <c r="M15" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N15" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="O15" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="P15" s="14" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q15" s="6" t="s">
         <v>69</v>
-      </c>
-      <c r="L15" s="4">
-        <v>12345</v>
-      </c>
-      <c r="M15" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="N15" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="O15" s="6" t="s">
-        <v>124</v>
-      </c>
-      <c r="P15" s="14" t="s">
-        <v>123</v>
-      </c>
-      <c r="Q15" s="6" t="s">
-        <v>70</v>
       </c>
       <c r="R15" s="4">
         <v>1233124</v>
       </c>
       <c r="S15" s="7" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="16" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B16" s="4">
         <v>123456</v>
@@ -1789,7 +1792,7 @@
         <v>19</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="G16" s="4">
         <v>5</v>
@@ -1804,36 +1807,36 @@
         <v>1111266665</v>
       </c>
       <c r="K16" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="L16" s="4">
+        <v>12345</v>
+      </c>
+      <c r="M16" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N16" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="O16" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="P16" s="14" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q16" s="6" t="s">
         <v>72</v>
-      </c>
-      <c r="L16" s="4">
-        <v>12345</v>
-      </c>
-      <c r="M16" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="N16" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="O16" s="6" t="s">
-        <v>124</v>
-      </c>
-      <c r="P16" s="14" t="s">
-        <v>123</v>
-      </c>
-      <c r="Q16" s="6" t="s">
-        <v>73</v>
       </c>
       <c r="R16" s="4">
         <v>1233013</v>
       </c>
       <c r="S16" s="7" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="17" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B17" s="4">
         <v>123456</v>
@@ -1848,7 +1851,7 @@
         <v>19</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="G17" s="4">
         <v>8</v>
@@ -1863,7 +1866,7 @@
         <v>1111277776</v>
       </c>
       <c r="K17" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="L17" s="4">
         <v>12345</v>
@@ -1875,24 +1878,24 @@
         <v>21</v>
       </c>
       <c r="O17" s="6" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="P17" s="14" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="Q17" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="R17" s="4">
         <v>1232902</v>
       </c>
       <c r="S17" s="7" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="18" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B18" s="4">
         <v>123456</v>
@@ -1907,7 +1910,7 @@
         <v>19</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="G18" s="4">
         <v>6</v>
@@ -1922,7 +1925,7 @@
         <v>1111288887</v>
       </c>
       <c r="K18" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="L18" s="4">
         <v>12345</v>
@@ -1934,24 +1937,24 @@
         <v>21</v>
       </c>
       <c r="O18" s="6" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="P18" s="14" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="Q18" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="R18" s="4">
         <v>1232791</v>
       </c>
       <c r="S18" s="7" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="19" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B19" s="4">
         <v>123456</v>
@@ -1966,7 +1969,7 @@
         <v>19</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="G19" s="4">
         <v>9</v>
@@ -1981,7 +1984,7 @@
         <v>1111299998</v>
       </c>
       <c r="K19" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="L19" s="4">
         <v>12345</v>
@@ -1993,24 +1996,24 @@
         <v>21</v>
       </c>
       <c r="O19" s="6" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="P19" s="14" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="Q19" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="R19" s="4">
         <v>1232680</v>
       </c>
       <c r="S19" s="7" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="20" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B20" s="4">
         <v>123456</v>
@@ -2025,7 +2028,7 @@
         <v>19</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="G20" s="4">
         <v>7</v>
@@ -2040,7 +2043,7 @@
         <v>1111311109</v>
       </c>
       <c r="K20" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="L20" s="4">
         <v>12345</v>
@@ -2052,24 +2055,24 @@
         <v>21</v>
       </c>
       <c r="O20" s="6" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="P20" s="14" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="Q20" s="6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="R20" s="4">
         <v>1232569</v>
       </c>
       <c r="S20" s="7" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="21" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B21" s="4">
         <v>123456</v>
@@ -2084,7 +2087,7 @@
         <v>19</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="G21" s="4">
         <v>10</v>
@@ -2099,7 +2102,7 @@
         <v>1111322220</v>
       </c>
       <c r="K21" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="L21" s="4">
         <v>12345</v>
@@ -2111,19 +2114,19 @@
         <v>21</v>
       </c>
       <c r="O21" s="6" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="P21" s="14" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="Q21" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="R21" s="4">
         <v>1232458</v>
       </c>
       <c r="S21" s="7" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="22" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2145,7 +2148,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0B9FA04-F847-4E5F-BB9A-BE84F3B2C52C}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="Q3" sqref="Q3:Q21"/>
     </sheetView>
   </sheetViews>
@@ -2221,7 +2224,7 @@
     </row>
     <row r="2" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B2" s="4">
         <v>123456</v>
@@ -2257,24 +2260,24 @@
         <v>21</v>
       </c>
       <c r="M2" s="6" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="N2" s="14" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="O2" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="P2" s="4">
         <v>1234567</v>
       </c>
       <c r="Q2" s="15" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="3" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B3" s="4">
         <v>123456</v>
@@ -2298,36 +2301,36 @@
         <v>1111122222</v>
       </c>
       <c r="I3" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="J3" s="4">
+        <v>12345</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="L3" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="M3" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="N3" s="14" t="s">
+        <v>121</v>
+      </c>
+      <c r="O3" s="6" t="s">
         <v>26</v>
-      </c>
-      <c r="J3" s="4">
-        <v>12345</v>
-      </c>
-      <c r="K3" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="L3" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="M3" s="6" t="s">
-        <v>124</v>
-      </c>
-      <c r="N3" s="14" t="s">
-        <v>123</v>
-      </c>
-      <c r="O3" s="6" t="s">
-        <v>27</v>
       </c>
       <c r="P3" s="4">
         <v>1234456</v>
       </c>
       <c r="Q3" s="15" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="4" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B4" s="4">
         <v>123456</v>
@@ -2351,36 +2354,36 @@
         <v>1111133333</v>
       </c>
       <c r="I4" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="J4" s="4">
+        <v>12345</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="L4" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="M4" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="N4" s="14" t="s">
+        <v>121</v>
+      </c>
+      <c r="O4" s="6" t="s">
         <v>30</v>
-      </c>
-      <c r="J4" s="4">
-        <v>12345</v>
-      </c>
-      <c r="K4" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="L4" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="M4" s="6" t="s">
-        <v>124</v>
-      </c>
-      <c r="N4" s="14" t="s">
-        <v>123</v>
-      </c>
-      <c r="O4" s="6" t="s">
-        <v>31</v>
       </c>
       <c r="P4" s="4">
         <v>1234345</v>
       </c>
       <c r="Q4" s="15" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="5" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B5" s="4">
         <v>123456</v>
@@ -2404,36 +2407,36 @@
         <v>1111144444</v>
       </c>
       <c r="I5" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="J5" s="4">
+        <v>12345</v>
+      </c>
+      <c r="K5" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="L5" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="M5" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="N5" s="14" t="s">
+        <v>121</v>
+      </c>
+      <c r="O5" s="6" t="s">
         <v>34</v>
-      </c>
-      <c r="J5" s="4">
-        <v>12345</v>
-      </c>
-      <c r="K5" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="L5" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="M5" s="6" t="s">
-        <v>124</v>
-      </c>
-      <c r="N5" s="14" t="s">
-        <v>123</v>
-      </c>
-      <c r="O5" s="6" t="s">
-        <v>35</v>
       </c>
       <c r="P5" s="4">
         <v>1234234</v>
       </c>
       <c r="Q5" s="15" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="6" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B6" s="4">
         <v>123456</v>
@@ -2457,36 +2460,36 @@
         <v>1111155555</v>
       </c>
       <c r="I6" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="J6" s="4">
+        <v>12345</v>
+      </c>
+      <c r="K6" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="L6" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="M6" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="N6" s="14" t="s">
+        <v>121</v>
+      </c>
+      <c r="O6" s="6" t="s">
         <v>38</v>
-      </c>
-      <c r="J6" s="4">
-        <v>12345</v>
-      </c>
-      <c r="K6" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="L6" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="M6" s="6" t="s">
-        <v>124</v>
-      </c>
-      <c r="N6" s="14" t="s">
-        <v>123</v>
-      </c>
-      <c r="O6" s="6" t="s">
-        <v>39</v>
       </c>
       <c r="P6" s="4">
         <v>1234123</v>
       </c>
       <c r="Q6" s="15" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="7" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B7" s="4">
         <v>123456</v>
@@ -2510,36 +2513,36 @@
         <v>1111166666</v>
       </c>
       <c r="I7" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="J7" s="4">
+        <v>12345</v>
+      </c>
+      <c r="K7" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="L7" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="M7" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="N7" s="14" t="s">
+        <v>121</v>
+      </c>
+      <c r="O7" s="6" t="s">
         <v>42</v>
-      </c>
-      <c r="J7" s="4">
-        <v>12345</v>
-      </c>
-      <c r="K7" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="L7" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="M7" s="6" t="s">
-        <v>124</v>
-      </c>
-      <c r="N7" s="14" t="s">
-        <v>123</v>
-      </c>
-      <c r="O7" s="6" t="s">
-        <v>43</v>
       </c>
       <c r="P7" s="4">
         <v>1234012</v>
       </c>
       <c r="Q7" s="15" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="8" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B8" s="4">
         <v>123456</v>
@@ -2563,36 +2566,36 @@
         <v>1111177777</v>
       </c>
       <c r="I8" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="J8" s="4">
+        <v>12345</v>
+      </c>
+      <c r="K8" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="L8" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="M8" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="N8" s="14" t="s">
+        <v>121</v>
+      </c>
+      <c r="O8" s="7" t="s">
         <v>46</v>
-      </c>
-      <c r="J8" s="4">
-        <v>12345</v>
-      </c>
-      <c r="K8" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="L8" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="M8" s="6" t="s">
-        <v>124</v>
-      </c>
-      <c r="N8" s="14" t="s">
-        <v>123</v>
-      </c>
-      <c r="O8" s="7" t="s">
-        <v>47</v>
       </c>
       <c r="P8" s="4">
         <v>1233901</v>
       </c>
       <c r="Q8" s="15" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="9" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B9" s="4">
         <v>123456</v>
@@ -2616,7 +2619,7 @@
         <v>1111188888</v>
       </c>
       <c r="I9" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J9" s="4">
         <v>12345</v>
@@ -2628,24 +2631,24 @@
         <v>21</v>
       </c>
       <c r="M9" s="6" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="N9" s="14" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="O9" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="P9" s="4">
         <v>1233790</v>
       </c>
       <c r="Q9" s="15" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="10" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B10" s="4">
         <v>123456</v>
@@ -2669,36 +2672,36 @@
         <v>1111199999</v>
       </c>
       <c r="I10" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="J10" s="4">
+        <v>12345</v>
+      </c>
+      <c r="K10" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="L10" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="M10" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="N10" s="14" t="s">
+        <v>121</v>
+      </c>
+      <c r="O10" s="7" t="s">
         <v>53</v>
-      </c>
-      <c r="J10" s="4">
-        <v>12345</v>
-      </c>
-      <c r="K10" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="L10" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="M10" s="6" t="s">
-        <v>124</v>
-      </c>
-      <c r="N10" s="14" t="s">
-        <v>123</v>
-      </c>
-      <c r="O10" s="7" t="s">
-        <v>54</v>
       </c>
       <c r="P10" s="4">
         <v>1233679</v>
       </c>
       <c r="Q10" s="15" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="11" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B11" s="4">
         <v>123456</v>
@@ -2722,7 +2725,7 @@
         <v>1111211110</v>
       </c>
       <c r="I11" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J11" s="4">
         <v>12345</v>
@@ -2734,24 +2737,24 @@
         <v>21</v>
       </c>
       <c r="M11" s="6" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="N11" s="14" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="O11" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="P11" s="4">
         <v>1233568</v>
       </c>
       <c r="Q11" s="15" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="12" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B12" s="4">
         <v>123456</v>
@@ -2775,7 +2778,7 @@
         <v>1111222221</v>
       </c>
       <c r="I12" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J12" s="4">
         <v>12345</v>
@@ -2787,24 +2790,24 @@
         <v>21</v>
       </c>
       <c r="M12" s="6" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="N12" s="14" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="P12" s="4">
         <v>1233457</v>
       </c>
       <c r="Q12" s="15" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="13" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B13" s="4">
         <v>123456</v>
@@ -2828,7 +2831,7 @@
         <v>1111233332</v>
       </c>
       <c r="I13" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="J13" s="4">
         <v>12345</v>
@@ -2840,24 +2843,24 @@
         <v>21</v>
       </c>
       <c r="M13" s="6" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="N13" s="14" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="P13" s="4">
         <v>1233346</v>
       </c>
       <c r="Q13" s="15" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="14" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B14" s="4">
         <v>123456</v>
@@ -2881,7 +2884,7 @@
         <v>1111244443</v>
       </c>
       <c r="I14" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="J14" s="4">
         <v>12345</v>
@@ -2893,24 +2896,24 @@
         <v>21</v>
       </c>
       <c r="M14" s="6" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="N14" s="14" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="O14" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="P14" s="4">
         <v>1233235</v>
       </c>
       <c r="Q14" s="15" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="15" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B15" s="4">
         <v>123456</v>
@@ -2934,36 +2937,36 @@
         <v>1111255554</v>
       </c>
       <c r="I15" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="J15" s="4">
+        <v>12345</v>
+      </c>
+      <c r="K15" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="L15" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="M15" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="N15" s="14" t="s">
+        <v>121</v>
+      </c>
+      <c r="O15" s="6" t="s">
         <v>69</v>
-      </c>
-      <c r="J15" s="4">
-        <v>12345</v>
-      </c>
-      <c r="K15" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="L15" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="M15" s="6" t="s">
-        <v>124</v>
-      </c>
-      <c r="N15" s="14" t="s">
-        <v>123</v>
-      </c>
-      <c r="O15" s="6" t="s">
-        <v>70</v>
       </c>
       <c r="P15" s="4">
         <v>1233124</v>
       </c>
       <c r="Q15" s="15" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="16" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B16" s="4">
         <v>123456</v>
@@ -2987,36 +2990,36 @@
         <v>1111266665</v>
       </c>
       <c r="I16" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="J16" s="4">
+        <v>12345</v>
+      </c>
+      <c r="K16" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="L16" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="M16" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="N16" s="14" t="s">
+        <v>121</v>
+      </c>
+      <c r="O16" s="6" t="s">
         <v>72</v>
-      </c>
-      <c r="J16" s="4">
-        <v>12345</v>
-      </c>
-      <c r="K16" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="L16" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="M16" s="6" t="s">
-        <v>124</v>
-      </c>
-      <c r="N16" s="14" t="s">
-        <v>123</v>
-      </c>
-      <c r="O16" s="6" t="s">
-        <v>73</v>
       </c>
       <c r="P16" s="4">
         <v>1233013</v>
       </c>
       <c r="Q16" s="15" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="17" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B17" s="4">
         <v>123456</v>
@@ -3040,7 +3043,7 @@
         <v>1111277776</v>
       </c>
       <c r="I17" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J17" s="4">
         <v>12345</v>
@@ -3052,24 +3055,24 @@
         <v>21</v>
       </c>
       <c r="M17" s="6" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="N17" s="14" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="O17" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="P17" s="4">
         <v>1232902</v>
       </c>
       <c r="Q17" s="15" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="18" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B18" s="4">
         <v>123456</v>
@@ -3093,7 +3096,7 @@
         <v>1111288887</v>
       </c>
       <c r="I18" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="J18" s="4">
         <v>12345</v>
@@ -3105,24 +3108,24 @@
         <v>21</v>
       </c>
       <c r="M18" s="6" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="N18" s="14" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="O18" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="P18" s="4">
         <v>1232791</v>
       </c>
       <c r="Q18" s="15" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="19" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B19" s="4">
         <v>123456</v>
@@ -3146,7 +3149,7 @@
         <v>1111299998</v>
       </c>
       <c r="I19" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="J19" s="4">
         <v>12345</v>
@@ -3158,24 +3161,24 @@
         <v>21</v>
       </c>
       <c r="M19" s="6" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="N19" s="14" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="O19" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="P19" s="4">
         <v>1232680</v>
       </c>
       <c r="Q19" s="15" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="20" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B20" s="4">
         <v>123456</v>
@@ -3199,7 +3202,7 @@
         <v>1111311109</v>
       </c>
       <c r="I20" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J20" s="4">
         <v>12345</v>
@@ -3211,24 +3214,24 @@
         <v>21</v>
       </c>
       <c r="M20" s="6" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="N20" s="14" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="O20" s="6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="P20" s="4">
         <v>1232569</v>
       </c>
       <c r="Q20" s="15" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="21" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B21" s="4">
         <v>123456</v>
@@ -3252,7 +3255,7 @@
         <v>1111322220</v>
       </c>
       <c r="I21" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J21" s="4">
         <v>12345</v>
@@ -3264,19 +3267,19 @@
         <v>21</v>
       </c>
       <c r="M21" s="6" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="N21" s="14" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="O21" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="P21" s="4">
         <v>1232458</v>
       </c>
       <c r="Q21" s="15" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="22" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3296,15 +3299,18 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A68F4FB-2DBD-4958-804B-928A84F395E1}">
-  <dimension ref="A1:S21"/>
+  <dimension ref="A1:S30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="S3" sqref="S3:S30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="28.28515625" customWidth="1"/>
     <col min="10" max="10" width="17.28515625" customWidth="1"/>
+    <col min="13" max="13" width="21" customWidth="1"/>
+    <col min="14" max="14" width="23.42578125" customWidth="1"/>
     <col min="15" max="15" width="37.7109375" customWidth="1"/>
     <col min="16" max="16" width="13.5703125" bestFit="1" customWidth="1"/>
   </cols>
@@ -3320,13 +3326,13 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>4</v>
@@ -3350,7 +3356,7 @@
         <v>11</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="O1" s="1" t="s">
         <v>12</v>
@@ -3370,7 +3376,7 @@
     </row>
     <row r="2" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>107</v>
+        <v>120</v>
       </c>
       <c r="B2" s="4">
         <v>123456</v>
@@ -3385,7 +3391,7 @@
         <v>19</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="G2" s="4">
         <v>2</v>
@@ -3411,25 +3417,25 @@
       <c r="N2" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="O2" s="6" t="s">
+      <c r="O2" s="15" t="s">
+        <v>128</v>
+      </c>
+      <c r="P2" s="14" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q2" s="7" t="s">
         <v>22</v>
-      </c>
-      <c r="P2" s="14" t="s">
-        <v>123</v>
-      </c>
-      <c r="Q2" s="7" t="s">
-        <v>23</v>
       </c>
       <c r="R2" s="4">
         <v>1234567</v>
       </c>
       <c r="S2" s="7" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="3" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B3" s="4">
         <v>123456</v>
@@ -3444,7 +3450,7 @@
         <v>19</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="G3" s="4">
         <v>2</v>
@@ -3470,95 +3476,1617 @@
       <c r="N3" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="O3" s="6" t="s">
+      <c r="O3" s="15" t="s">
+        <v>128</v>
+      </c>
+      <c r="P3" s="14" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q3" s="7" t="s">
         <v>22</v>
-      </c>
-      <c r="P3" s="14" t="s">
-        <v>123</v>
-      </c>
-      <c r="Q3" s="7" t="s">
-        <v>23</v>
       </c>
       <c r="R3" s="4">
         <v>1234567</v>
       </c>
       <c r="S3" s="7" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="O4" s="6"/>
-      <c r="P4" s="14"/>
+        <v>99</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="B4" s="4">
+        <v>123456</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="G4" s="4">
+        <v>2</v>
+      </c>
+      <c r="H4" s="4">
+        <v>10</v>
+      </c>
+      <c r="I4" s="4">
+        <v>1996</v>
+      </c>
+      <c r="J4" s="4">
+        <v>1111111111</v>
+      </c>
+      <c r="K4" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="L4" s="4">
+        <v>12345</v>
+      </c>
+      <c r="M4" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N4" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="O4" s="15" t="s">
+        <v>128</v>
+      </c>
+      <c r="P4" s="14" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q4" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="R4" s="4">
+        <v>1234567</v>
+      </c>
+      <c r="S4" s="7" t="s">
+        <v>99</v>
+      </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="O5" s="6"/>
-      <c r="P5" s="14"/>
+      <c r="A5" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="B5" s="4">
+        <v>123456</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="G5" s="4">
+        <v>2</v>
+      </c>
+      <c r="H5" s="4">
+        <v>10</v>
+      </c>
+      <c r="I5" s="4">
+        <v>1996</v>
+      </c>
+      <c r="J5" s="4">
+        <v>1111111111</v>
+      </c>
+      <c r="K5" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="L5" s="4">
+        <v>12345</v>
+      </c>
+      <c r="M5" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N5" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="O5" s="15" t="s">
+        <v>128</v>
+      </c>
+      <c r="P5" s="14" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q5" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="R5" s="4">
+        <v>1234568</v>
+      </c>
+      <c r="S5" s="7" t="s">
+        <v>99</v>
+      </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="O6" s="6"/>
-      <c r="P6" s="14"/>
+      <c r="A6" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="B6" s="4">
+        <v>123456</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="G6" s="4">
+        <v>2</v>
+      </c>
+      <c r="H6" s="4">
+        <v>10</v>
+      </c>
+      <c r="I6" s="4">
+        <v>1996</v>
+      </c>
+      <c r="J6" s="4">
+        <v>1111111111</v>
+      </c>
+      <c r="K6" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="L6" s="4">
+        <v>12345</v>
+      </c>
+      <c r="M6" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N6" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="O6" s="15" t="s">
+        <v>128</v>
+      </c>
+      <c r="P6" s="14" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q6" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="R6" s="4">
+        <v>1234569</v>
+      </c>
+      <c r="S6" s="7" t="s">
+        <v>99</v>
+      </c>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="O7" s="6"/>
-      <c r="P7" s="14"/>
+      <c r="A7" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="B7" s="4">
+        <v>123456</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="G7" s="4">
+        <v>2</v>
+      </c>
+      <c r="H7" s="4">
+        <v>10</v>
+      </c>
+      <c r="I7" s="4">
+        <v>1996</v>
+      </c>
+      <c r="J7" s="4">
+        <v>1111111111</v>
+      </c>
+      <c r="K7" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="L7" s="4">
+        <v>12345</v>
+      </c>
+      <c r="M7" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N7" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="O7" s="15" t="s">
+        <v>128</v>
+      </c>
+      <c r="P7" s="14" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q7" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="R7" s="4">
+        <v>1234570</v>
+      </c>
+      <c r="S7" s="7" t="s">
+        <v>99</v>
+      </c>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="O8" s="6"/>
-      <c r="P8" s="14"/>
+      <c r="A8" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="B8" s="4">
+        <v>123456</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="G8" s="4">
+        <v>2</v>
+      </c>
+      <c r="H8" s="4">
+        <v>10</v>
+      </c>
+      <c r="I8" s="4">
+        <v>1996</v>
+      </c>
+      <c r="J8" s="4">
+        <v>1111111111</v>
+      </c>
+      <c r="K8" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="L8" s="4">
+        <v>12345</v>
+      </c>
+      <c r="M8" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N8" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="O8" s="15" t="s">
+        <v>128</v>
+      </c>
+      <c r="P8" s="14" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q8" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="R8" s="4">
+        <v>1234571</v>
+      </c>
+      <c r="S8" s="7" t="s">
+        <v>99</v>
+      </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="O9" s="6"/>
-      <c r="P9" s="14"/>
+      <c r="A9" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="B9" s="4">
+        <v>123456</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="G9" s="4">
+        <v>2</v>
+      </c>
+      <c r="H9" s="4">
+        <v>10</v>
+      </c>
+      <c r="I9" s="4">
+        <v>1996</v>
+      </c>
+      <c r="J9" s="4">
+        <v>1111111111</v>
+      </c>
+      <c r="K9" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="L9" s="4">
+        <v>12345</v>
+      </c>
+      <c r="M9" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N9" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="O9" s="15" t="s">
+        <v>128</v>
+      </c>
+      <c r="P9" s="14" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q9" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="R9" s="4">
+        <v>1234572</v>
+      </c>
+      <c r="S9" s="7" t="s">
+        <v>99</v>
+      </c>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="O10" s="6"/>
-      <c r="P10" s="14"/>
+      <c r="A10" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="B10" s="4">
+        <v>123456</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="G10" s="4">
+        <v>2</v>
+      </c>
+      <c r="H10" s="4">
+        <v>10</v>
+      </c>
+      <c r="I10" s="4">
+        <v>1996</v>
+      </c>
+      <c r="J10" s="4">
+        <v>1111111111</v>
+      </c>
+      <c r="K10" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="L10" s="4">
+        <v>12345</v>
+      </c>
+      <c r="M10" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N10" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="O10" s="15" t="s">
+        <v>128</v>
+      </c>
+      <c r="P10" s="14" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q10" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="R10" s="4">
+        <v>1234573</v>
+      </c>
+      <c r="S10" s="7" t="s">
+        <v>99</v>
+      </c>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="O11" s="6"/>
-      <c r="P11" s="14"/>
+      <c r="A11" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="B11" s="4">
+        <v>123456</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="G11" s="4">
+        <v>2</v>
+      </c>
+      <c r="H11" s="4">
+        <v>10</v>
+      </c>
+      <c r="I11" s="4">
+        <v>1996</v>
+      </c>
+      <c r="J11" s="4">
+        <v>1111111111</v>
+      </c>
+      <c r="K11" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="L11" s="4">
+        <v>12345</v>
+      </c>
+      <c r="M11" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N11" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="O11" s="15" t="s">
+        <v>128</v>
+      </c>
+      <c r="P11" s="14" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q11" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="R11" s="4">
+        <v>1234574</v>
+      </c>
+      <c r="S11" s="7" t="s">
+        <v>99</v>
+      </c>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="O12" s="6"/>
-      <c r="P12" s="14"/>
+      <c r="A12" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="B12" s="4">
+        <v>123456</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="G12" s="4">
+        <v>2</v>
+      </c>
+      <c r="H12" s="4">
+        <v>10</v>
+      </c>
+      <c r="I12" s="4">
+        <v>1996</v>
+      </c>
+      <c r="J12" s="4">
+        <v>1111111111</v>
+      </c>
+      <c r="K12" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="L12" s="4">
+        <v>12345</v>
+      </c>
+      <c r="M12" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N12" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="O12" s="15" t="s">
+        <v>128</v>
+      </c>
+      <c r="P12" s="14" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q12" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="R12" s="4">
+        <v>1234575</v>
+      </c>
+      <c r="S12" s="7" t="s">
+        <v>99</v>
+      </c>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="O13" s="6"/>
-      <c r="P13" s="14"/>
+      <c r="A13" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="B13" s="4">
+        <v>123456</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="G13" s="4">
+        <v>2</v>
+      </c>
+      <c r="H13" s="4">
+        <v>10</v>
+      </c>
+      <c r="I13" s="4">
+        <v>1996</v>
+      </c>
+      <c r="J13" s="4">
+        <v>1111111111</v>
+      </c>
+      <c r="K13" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="L13" s="4">
+        <v>12345</v>
+      </c>
+      <c r="M13" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N13" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="O13" s="15" t="s">
+        <v>128</v>
+      </c>
+      <c r="P13" s="14" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q13" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="R13" s="4">
+        <v>1234576</v>
+      </c>
+      <c r="S13" s="7" t="s">
+        <v>99</v>
+      </c>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="O14" s="6"/>
-      <c r="P14" s="14"/>
+      <c r="A14" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="B14" s="4">
+        <v>123456</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="G14" s="4">
+        <v>2</v>
+      </c>
+      <c r="H14" s="4">
+        <v>10</v>
+      </c>
+      <c r="I14" s="4">
+        <v>1996</v>
+      </c>
+      <c r="J14" s="4">
+        <v>1111111111</v>
+      </c>
+      <c r="K14" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="L14" s="4">
+        <v>12345</v>
+      </c>
+      <c r="M14" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N14" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="O14" s="15" t="s">
+        <v>128</v>
+      </c>
+      <c r="P14" s="14" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q14" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="R14" s="4">
+        <v>1234577</v>
+      </c>
+      <c r="S14" s="7" t="s">
+        <v>99</v>
+      </c>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="O15" s="6"/>
-      <c r="P15" s="14"/>
+      <c r="A15" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="B15" s="4">
+        <v>123456</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="G15" s="4">
+        <v>2</v>
+      </c>
+      <c r="H15" s="4">
+        <v>10</v>
+      </c>
+      <c r="I15" s="4">
+        <v>1996</v>
+      </c>
+      <c r="J15" s="4">
+        <v>1111111111</v>
+      </c>
+      <c r="K15" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="L15" s="4">
+        <v>12345</v>
+      </c>
+      <c r="M15" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N15" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="O15" s="15" t="s">
+        <v>128</v>
+      </c>
+      <c r="P15" s="14" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q15" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="R15" s="4">
+        <v>1234578</v>
+      </c>
+      <c r="S15" s="7" t="s">
+        <v>99</v>
+      </c>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="O16" s="6"/>
-      <c r="P16" s="14"/>
-    </row>
-    <row r="17" spans="15:16" x14ac:dyDescent="0.25">
-      <c r="O17" s="6"/>
-      <c r="P17" s="14"/>
-    </row>
-    <row r="18" spans="15:16" x14ac:dyDescent="0.25">
-      <c r="O18" s="6"/>
-      <c r="P18" s="14"/>
-    </row>
-    <row r="19" spans="15:16" x14ac:dyDescent="0.25">
-      <c r="O19" s="6"/>
-      <c r="P19" s="14"/>
-    </row>
-    <row r="20" spans="15:16" x14ac:dyDescent="0.25">
-      <c r="O20" s="6"/>
-      <c r="P20" s="14"/>
-    </row>
-    <row r="21" spans="15:16" x14ac:dyDescent="0.25">
-      <c r="O21" s="6"/>
-      <c r="P21" s="14"/>
+      <c r="A16" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="B16" s="4">
+        <v>123456</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="G16" s="4">
+        <v>2</v>
+      </c>
+      <c r="H16" s="4">
+        <v>10</v>
+      </c>
+      <c r="I16" s="4">
+        <v>1996</v>
+      </c>
+      <c r="J16" s="4">
+        <v>1111111111</v>
+      </c>
+      <c r="K16" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="L16" s="4">
+        <v>12345</v>
+      </c>
+      <c r="M16" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N16" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="O16" s="15" t="s">
+        <v>128</v>
+      </c>
+      <c r="P16" s="14" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q16" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="R16" s="4">
+        <v>1234579</v>
+      </c>
+      <c r="S16" s="7" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A17" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="B17" s="4">
+        <v>123456</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="G17" s="4">
+        <v>2</v>
+      </c>
+      <c r="H17" s="4">
+        <v>10</v>
+      </c>
+      <c r="I17" s="4">
+        <v>1996</v>
+      </c>
+      <c r="J17" s="4">
+        <v>1111111111</v>
+      </c>
+      <c r="K17" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="L17" s="4">
+        <v>12345</v>
+      </c>
+      <c r="M17" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N17" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="O17" s="15" t="s">
+        <v>128</v>
+      </c>
+      <c r="P17" s="14" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q17" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="R17" s="4">
+        <v>1234580</v>
+      </c>
+      <c r="S17" s="7" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A18" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="B18" s="4">
+        <v>123456</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="G18" s="4">
+        <v>2</v>
+      </c>
+      <c r="H18" s="4">
+        <v>10</v>
+      </c>
+      <c r="I18" s="4">
+        <v>1996</v>
+      </c>
+      <c r="J18" s="4">
+        <v>1111111111</v>
+      </c>
+      <c r="K18" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="L18" s="4">
+        <v>12345</v>
+      </c>
+      <c r="M18" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N18" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="O18" s="15" t="s">
+        <v>128</v>
+      </c>
+      <c r="P18" s="14" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q18" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="R18" s="4">
+        <v>1234581</v>
+      </c>
+      <c r="S18" s="7" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A19" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="B19" s="4">
+        <v>123456</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="G19" s="4">
+        <v>2</v>
+      </c>
+      <c r="H19" s="4">
+        <v>10</v>
+      </c>
+      <c r="I19" s="4">
+        <v>1996</v>
+      </c>
+      <c r="J19" s="4">
+        <v>1111111111</v>
+      </c>
+      <c r="K19" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="L19" s="4">
+        <v>12345</v>
+      </c>
+      <c r="M19" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N19" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="O19" s="15" t="s">
+        <v>128</v>
+      </c>
+      <c r="P19" s="14" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q19" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="R19" s="4">
+        <v>1234582</v>
+      </c>
+      <c r="S19" s="7" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A20" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="B20" s="4">
+        <v>123456</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="G20" s="4">
+        <v>2</v>
+      </c>
+      <c r="H20" s="4">
+        <v>10</v>
+      </c>
+      <c r="I20" s="4">
+        <v>1996</v>
+      </c>
+      <c r="J20" s="4">
+        <v>1111111111</v>
+      </c>
+      <c r="K20" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="L20" s="4">
+        <v>12345</v>
+      </c>
+      <c r="M20" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N20" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="O20" s="15" t="s">
+        <v>128</v>
+      </c>
+      <c r="P20" s="14" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q20" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="R20" s="4">
+        <v>1234583</v>
+      </c>
+      <c r="S20" s="7" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A21" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="B21" s="4">
+        <v>123456</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="G21" s="4">
+        <v>2</v>
+      </c>
+      <c r="H21" s="4">
+        <v>10</v>
+      </c>
+      <c r="I21" s="4">
+        <v>1996</v>
+      </c>
+      <c r="J21" s="4">
+        <v>1111111111</v>
+      </c>
+      <c r="K21" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="L21" s="4">
+        <v>12345</v>
+      </c>
+      <c r="M21" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N21" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="O21" s="15" t="s">
+        <v>128</v>
+      </c>
+      <c r="P21" s="14" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q21" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="R21" s="4">
+        <v>1234584</v>
+      </c>
+      <c r="S21" s="7" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A22" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="B22" s="4">
+        <v>123456</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="G22" s="4">
+        <v>2</v>
+      </c>
+      <c r="H22" s="4">
+        <v>10</v>
+      </c>
+      <c r="I22" s="4">
+        <v>1996</v>
+      </c>
+      <c r="J22" s="4">
+        <v>1111111111</v>
+      </c>
+      <c r="K22" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="L22" s="4">
+        <v>12345</v>
+      </c>
+      <c r="M22" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N22" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="O22" s="15" t="s">
+        <v>128</v>
+      </c>
+      <c r="P22" s="14" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q22" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="R22" s="4">
+        <v>1234585</v>
+      </c>
+      <c r="S22" s="7" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A23" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="B23" s="4">
+        <v>123456</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="G23" s="4">
+        <v>2</v>
+      </c>
+      <c r="H23" s="4">
+        <v>10</v>
+      </c>
+      <c r="I23" s="4">
+        <v>1996</v>
+      </c>
+      <c r="J23" s="4">
+        <v>1111111111</v>
+      </c>
+      <c r="K23" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="L23" s="4">
+        <v>12345</v>
+      </c>
+      <c r="M23" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N23" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="O23" s="15" t="s">
+        <v>128</v>
+      </c>
+      <c r="P23" s="14" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q23" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="R23" s="4">
+        <v>1234586</v>
+      </c>
+      <c r="S23" s="7" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A24" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="B24" s="4">
+        <v>123456</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="G24" s="4">
+        <v>2</v>
+      </c>
+      <c r="H24" s="4">
+        <v>10</v>
+      </c>
+      <c r="I24" s="4">
+        <v>1996</v>
+      </c>
+      <c r="J24" s="4">
+        <v>1111111111</v>
+      </c>
+      <c r="K24" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="L24" s="4">
+        <v>12345</v>
+      </c>
+      <c r="M24" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N24" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="O24" s="15" t="s">
+        <v>128</v>
+      </c>
+      <c r="P24" s="14" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q24" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="R24" s="4">
+        <v>1234587</v>
+      </c>
+      <c r="S24" s="7" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A25" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="B25" s="4">
+        <v>123456</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="G25" s="4">
+        <v>2</v>
+      </c>
+      <c r="H25" s="4">
+        <v>10</v>
+      </c>
+      <c r="I25" s="4">
+        <v>1996</v>
+      </c>
+      <c r="J25" s="4">
+        <v>1111111111</v>
+      </c>
+      <c r="K25" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="L25" s="4">
+        <v>12345</v>
+      </c>
+      <c r="M25" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N25" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="O25" s="15" t="s">
+        <v>128</v>
+      </c>
+      <c r="P25" s="14" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q25" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="R25" s="4">
+        <v>1234588</v>
+      </c>
+      <c r="S25" s="7" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A26" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="B26" s="4">
+        <v>123456</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="G26" s="4">
+        <v>2</v>
+      </c>
+      <c r="H26" s="4">
+        <v>10</v>
+      </c>
+      <c r="I26" s="4">
+        <v>1996</v>
+      </c>
+      <c r="J26" s="4">
+        <v>1111111111</v>
+      </c>
+      <c r="K26" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="L26" s="4">
+        <v>12345</v>
+      </c>
+      <c r="M26" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N26" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="O26" s="15" t="s">
+        <v>128</v>
+      </c>
+      <c r="P26" s="14" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q26" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="R26" s="4">
+        <v>1234589</v>
+      </c>
+      <c r="S26" s="7" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A27" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="B27" s="4">
+        <v>123456</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F27" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="G27" s="4">
+        <v>2</v>
+      </c>
+      <c r="H27" s="4">
+        <v>10</v>
+      </c>
+      <c r="I27" s="4">
+        <v>1996</v>
+      </c>
+      <c r="J27" s="4">
+        <v>1111111111</v>
+      </c>
+      <c r="K27" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="L27" s="4">
+        <v>12345</v>
+      </c>
+      <c r="M27" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N27" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="O27" s="15" t="s">
+        <v>128</v>
+      </c>
+      <c r="P27" s="14" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="R27" s="4">
+        <v>1234590</v>
+      </c>
+      <c r="S27" s="7" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A28" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="B28" s="4">
+        <v>123456</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F28" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="G28" s="4">
+        <v>2</v>
+      </c>
+      <c r="H28" s="4">
+        <v>10</v>
+      </c>
+      <c r="I28" s="4">
+        <v>1996</v>
+      </c>
+      <c r="J28" s="4">
+        <v>1111111111</v>
+      </c>
+      <c r="K28" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="L28" s="4">
+        <v>12345</v>
+      </c>
+      <c r="M28" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N28" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="O28" s="15" t="s">
+        <v>128</v>
+      </c>
+      <c r="P28" s="14" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q28" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="R28" s="4">
+        <v>1234591</v>
+      </c>
+      <c r="S28" s="7" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A29" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="B29" s="4">
+        <v>123456</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="G29" s="4">
+        <v>2</v>
+      </c>
+      <c r="H29" s="4">
+        <v>10</v>
+      </c>
+      <c r="I29" s="4">
+        <v>1996</v>
+      </c>
+      <c r="J29" s="4">
+        <v>1111111111</v>
+      </c>
+      <c r="K29" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="L29" s="4">
+        <v>12345</v>
+      </c>
+      <c r="M29" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N29" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="O29" s="15" t="s">
+        <v>128</v>
+      </c>
+      <c r="P29" s="14" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q29" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="R29" s="4">
+        <v>1234592</v>
+      </c>
+      <c r="S29" s="7" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A30" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="B30" s="4">
+        <v>123456</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E30" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F30" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="G30" s="4">
+        <v>2</v>
+      </c>
+      <c r="H30" s="4">
+        <v>10</v>
+      </c>
+      <c r="I30" s="4">
+        <v>1996</v>
+      </c>
+      <c r="J30" s="4">
+        <v>1111111111</v>
+      </c>
+      <c r="K30" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="L30" s="4">
+        <v>12345</v>
+      </c>
+      <c r="M30" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N30" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="O30" s="15" t="s">
+        <v>128</v>
+      </c>
+      <c r="P30" s="14" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q30" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="R30" s="4">
+        <v>1234593</v>
+      </c>
+      <c r="S30" s="7" t="s">
+        <v>99</v>
+      </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -3646,7 +5174,7 @@
     </row>
     <row r="2" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B2" s="4">
         <v>123456</v>
@@ -3682,24 +5210,24 @@
         <v>21</v>
       </c>
       <c r="M2" s="6" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="N2" s="14" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="O2" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="P2" s="4">
         <v>1234567</v>
       </c>
       <c r="Q2" s="15" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="3" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B3" s="4">
         <v>123456</v>
@@ -3723,36 +5251,36 @@
         <v>1111122222</v>
       </c>
       <c r="I3" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="J3" s="4">
+        <v>12345</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="L3" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="M3" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="N3" s="14" t="s">
+        <v>121</v>
+      </c>
+      <c r="O3" s="6" t="s">
         <v>26</v>
-      </c>
-      <c r="J3" s="4">
-        <v>12345</v>
-      </c>
-      <c r="K3" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="L3" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="M3" s="6" t="s">
-        <v>124</v>
-      </c>
-      <c r="N3" s="14" t="s">
-        <v>123</v>
-      </c>
-      <c r="O3" s="6" t="s">
-        <v>27</v>
       </c>
       <c r="P3" s="4">
         <v>1234456</v>
       </c>
       <c r="Q3" s="15" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="4" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B4" s="4">
         <v>123456</v>
@@ -3776,36 +5304,36 @@
         <v>1111133333</v>
       </c>
       <c r="I4" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="J4" s="4">
+        <v>12345</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="L4" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="M4" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="N4" s="14" t="s">
+        <v>121</v>
+      </c>
+      <c r="O4" s="6" t="s">
         <v>30</v>
-      </c>
-      <c r="J4" s="4">
-        <v>12345</v>
-      </c>
-      <c r="K4" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="L4" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="M4" s="6" t="s">
-        <v>124</v>
-      </c>
-      <c r="N4" s="14" t="s">
-        <v>123</v>
-      </c>
-      <c r="O4" s="6" t="s">
-        <v>31</v>
       </c>
       <c r="P4" s="4">
         <v>1234345</v>
       </c>
       <c r="Q4" s="15" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="5" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B5" s="4">
         <v>123456</v>
@@ -3829,36 +5357,36 @@
         <v>1111144444</v>
       </c>
       <c r="I5" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="J5" s="4">
+        <v>12345</v>
+      </c>
+      <c r="K5" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="L5" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="M5" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="N5" s="14" t="s">
+        <v>121</v>
+      </c>
+      <c r="O5" s="6" t="s">
         <v>34</v>
-      </c>
-      <c r="J5" s="4">
-        <v>12345</v>
-      </c>
-      <c r="K5" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="L5" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="M5" s="6" t="s">
-        <v>124</v>
-      </c>
-      <c r="N5" s="14" t="s">
-        <v>123</v>
-      </c>
-      <c r="O5" s="6" t="s">
-        <v>35</v>
       </c>
       <c r="P5" s="4">
         <v>1234234</v>
       </c>
       <c r="Q5" s="15" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="6" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B6" s="4">
         <v>123456</v>
@@ -3882,36 +5410,36 @@
         <v>1111155555</v>
       </c>
       <c r="I6" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="J6" s="4">
+        <v>12345</v>
+      </c>
+      <c r="K6" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="L6" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="M6" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="N6" s="14" t="s">
+        <v>121</v>
+      </c>
+      <c r="O6" s="6" t="s">
         <v>38</v>
-      </c>
-      <c r="J6" s="4">
-        <v>12345</v>
-      </c>
-      <c r="K6" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="L6" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="M6" s="6" t="s">
-        <v>124</v>
-      </c>
-      <c r="N6" s="14" t="s">
-        <v>123</v>
-      </c>
-      <c r="O6" s="6" t="s">
-        <v>39</v>
       </c>
       <c r="P6" s="4">
         <v>1234123</v>
       </c>
       <c r="Q6" s="15" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="7" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B7" s="4">
         <v>123456</v>
@@ -3935,36 +5463,36 @@
         <v>1111166666</v>
       </c>
       <c r="I7" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="J7" s="4">
+        <v>12345</v>
+      </c>
+      <c r="K7" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="L7" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="M7" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="N7" s="14" t="s">
+        <v>121</v>
+      </c>
+      <c r="O7" s="6" t="s">
         <v>42</v>
-      </c>
-      <c r="J7" s="4">
-        <v>12345</v>
-      </c>
-      <c r="K7" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="L7" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="M7" s="6" t="s">
-        <v>124</v>
-      </c>
-      <c r="N7" s="14" t="s">
-        <v>123</v>
-      </c>
-      <c r="O7" s="6" t="s">
-        <v>43</v>
       </c>
       <c r="P7" s="4">
         <v>1234012</v>
       </c>
       <c r="Q7" s="15" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="8" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B8" s="4">
         <v>123456</v>
@@ -3988,36 +5516,36 @@
         <v>1111177777</v>
       </c>
       <c r="I8" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="J8" s="4">
+        <v>12345</v>
+      </c>
+      <c r="K8" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="L8" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="M8" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="N8" s="14" t="s">
+        <v>121</v>
+      </c>
+      <c r="O8" s="7" t="s">
         <v>46</v>
-      </c>
-      <c r="J8" s="4">
-        <v>12345</v>
-      </c>
-      <c r="K8" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="L8" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="M8" s="6" t="s">
-        <v>124</v>
-      </c>
-      <c r="N8" s="14" t="s">
-        <v>123</v>
-      </c>
-      <c r="O8" s="7" t="s">
-        <v>47</v>
       </c>
       <c r="P8" s="4">
         <v>1233901</v>
       </c>
       <c r="Q8" s="15" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="9" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B9" s="4">
         <v>123456</v>
@@ -4041,7 +5569,7 @@
         <v>1111188888</v>
       </c>
       <c r="I9" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J9" s="4">
         <v>12345</v>
@@ -4053,24 +5581,24 @@
         <v>21</v>
       </c>
       <c r="M9" s="6" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="N9" s="14" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="O9" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="P9" s="4">
         <v>1233790</v>
       </c>
       <c r="Q9" s="15" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="10" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B10" s="4">
         <v>123456</v>
@@ -4094,36 +5622,36 @@
         <v>1111199999</v>
       </c>
       <c r="I10" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="J10" s="4">
+        <v>12345</v>
+      </c>
+      <c r="K10" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="L10" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="M10" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="N10" s="14" t="s">
+        <v>121</v>
+      </c>
+      <c r="O10" s="7" t="s">
         <v>53</v>
-      </c>
-      <c r="J10" s="4">
-        <v>12345</v>
-      </c>
-      <c r="K10" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="L10" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="M10" s="6" t="s">
-        <v>124</v>
-      </c>
-      <c r="N10" s="14" t="s">
-        <v>123</v>
-      </c>
-      <c r="O10" s="7" t="s">
-        <v>54</v>
       </c>
       <c r="P10" s="4">
         <v>1233679</v>
       </c>
       <c r="Q10" s="15" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="11" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B11" s="4">
         <v>123456</v>
@@ -4147,7 +5675,7 @@
         <v>1111211110</v>
       </c>
       <c r="I11" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J11" s="4">
         <v>12345</v>
@@ -4159,24 +5687,24 @@
         <v>21</v>
       </c>
       <c r="M11" s="6" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="N11" s="14" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="O11" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="P11" s="4">
         <v>1233568</v>
       </c>
       <c r="Q11" s="15" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="12" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B12" s="4">
         <v>123456</v>
@@ -4200,7 +5728,7 @@
         <v>1111222221</v>
       </c>
       <c r="I12" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J12" s="4">
         <v>12345</v>
@@ -4212,24 +5740,24 @@
         <v>21</v>
       </c>
       <c r="M12" s="6" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="N12" s="14" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="P12" s="4">
         <v>1233457</v>
       </c>
       <c r="Q12" s="15" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="13" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B13" s="4">
         <v>123456</v>
@@ -4253,7 +5781,7 @@
         <v>1111233332</v>
       </c>
       <c r="I13" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="J13" s="4">
         <v>12345</v>
@@ -4265,24 +5793,24 @@
         <v>21</v>
       </c>
       <c r="M13" s="6" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="N13" s="14" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="P13" s="4">
         <v>1233346</v>
       </c>
       <c r="Q13" s="15" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="14" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B14" s="4">
         <v>123456</v>
@@ -4306,7 +5834,7 @@
         <v>1111244443</v>
       </c>
       <c r="I14" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="J14" s="4">
         <v>12345</v>
@@ -4318,24 +5846,24 @@
         <v>21</v>
       </c>
       <c r="M14" s="6" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="N14" s="14" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="O14" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="P14" s="4">
         <v>1233235</v>
       </c>
       <c r="Q14" s="15" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="15" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B15" s="4">
         <v>123456</v>
@@ -4359,36 +5887,36 @@
         <v>1111255554</v>
       </c>
       <c r="I15" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="J15" s="4">
+        <v>12345</v>
+      </c>
+      <c r="K15" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="L15" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="M15" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="N15" s="14" t="s">
+        <v>121</v>
+      </c>
+      <c r="O15" s="6" t="s">
         <v>69</v>
-      </c>
-      <c r="J15" s="4">
-        <v>12345</v>
-      </c>
-      <c r="K15" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="L15" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="M15" s="6" t="s">
-        <v>124</v>
-      </c>
-      <c r="N15" s="14" t="s">
-        <v>123</v>
-      </c>
-      <c r="O15" s="6" t="s">
-        <v>70</v>
       </c>
       <c r="P15" s="4">
         <v>1233124</v>
       </c>
       <c r="Q15" s="15" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="16" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B16" s="4">
         <v>123456</v>
@@ -4412,36 +5940,36 @@
         <v>1111266665</v>
       </c>
       <c r="I16" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="J16" s="4">
+        <v>12345</v>
+      </c>
+      <c r="K16" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="L16" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="M16" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="N16" s="14" t="s">
+        <v>121</v>
+      </c>
+      <c r="O16" s="6" t="s">
         <v>72</v>
-      </c>
-      <c r="J16" s="4">
-        <v>12345</v>
-      </c>
-      <c r="K16" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="L16" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="M16" s="6" t="s">
-        <v>124</v>
-      </c>
-      <c r="N16" s="14" t="s">
-        <v>123</v>
-      </c>
-      <c r="O16" s="6" t="s">
-        <v>73</v>
       </c>
       <c r="P16" s="4">
         <v>1233013</v>
       </c>
       <c r="Q16" s="15" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="17" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B17" s="4">
         <v>123456</v>
@@ -4465,7 +5993,7 @@
         <v>1111277776</v>
       </c>
       <c r="I17" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J17" s="4">
         <v>12345</v>
@@ -4477,24 +6005,24 @@
         <v>21</v>
       </c>
       <c r="M17" s="6" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="N17" s="14" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="O17" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="P17" s="4">
         <v>1232902</v>
       </c>
       <c r="Q17" s="15" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="18" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B18" s="4">
         <v>123456</v>
@@ -4518,7 +6046,7 @@
         <v>1111288887</v>
       </c>
       <c r="I18" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="J18" s="4">
         <v>12345</v>
@@ -4530,24 +6058,24 @@
         <v>21</v>
       </c>
       <c r="M18" s="6" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="N18" s="14" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="O18" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="P18" s="4">
         <v>1232791</v>
       </c>
       <c r="Q18" s="15" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="19" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B19" s="4">
         <v>123456</v>
@@ -4571,7 +6099,7 @@
         <v>1111299998</v>
       </c>
       <c r="I19" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="J19" s="4">
         <v>12345</v>
@@ -4583,24 +6111,24 @@
         <v>21</v>
       </c>
       <c r="M19" s="6" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="N19" s="14" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="O19" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="P19" s="4">
         <v>1232680</v>
       </c>
       <c r="Q19" s="15" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="20" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B20" s="4">
         <v>123456</v>
@@ -4624,7 +6152,7 @@
         <v>1111311109</v>
       </c>
       <c r="I20" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J20" s="4">
         <v>12345</v>
@@ -4636,24 +6164,24 @@
         <v>21</v>
       </c>
       <c r="M20" s="6" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="N20" s="14" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="O20" s="6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="P20" s="4">
         <v>1232569</v>
       </c>
       <c r="Q20" s="15" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="21" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B21" s="4">
         <v>123456</v>
@@ -4677,7 +6205,7 @@
         <v>1111322220</v>
       </c>
       <c r="I21" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J21" s="4">
         <v>12345</v>
@@ -4689,19 +6217,19 @@
         <v>21</v>
       </c>
       <c r="M21" s="6" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="N21" s="14" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="O21" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="P21" s="4">
         <v>1232458</v>
       </c>
       <c r="Q21" s="15" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="22" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -4746,290 +6274,290 @@
         <v>1</v>
       </c>
       <c r="C1" s="12" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1" s="12" t="s">
         <v>105</v>
-      </c>
-      <c r="D1" s="12" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B2" s="4">
         <v>123456</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B3" s="4">
         <v>123456</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B4" s="4">
         <v>123456</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B5" s="4">
         <v>123456</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B6" s="4">
         <v>123456</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B7" s="4">
         <v>123456</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B8" s="4">
         <v>123456</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B9" s="4">
         <v>123456</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B10" s="4">
         <v>123456</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B11" s="4">
         <v>123456</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B12" s="4">
         <v>123456</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B13" s="4">
         <v>123456</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B14" s="4">
         <v>123456</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B15" s="4">
         <v>123456</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B16" s="4">
         <v>123456</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B17" s="4">
         <v>123456</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B18" s="4">
         <v>123456</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B19" s="4">
         <v>123456</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B20" s="4">
         <v>123456</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B21" s="4">
         <v>123456</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
   </sheetData>
@@ -5044,8 +6572,8 @@
   </sheetPr>
   <dimension ref="A1:Q22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5120,7 +6648,7 @@
     </row>
     <row r="2" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B2" s="4">
         <v>123456</v>
@@ -5156,24 +6684,24 @@
         <v>21</v>
       </c>
       <c r="M2" s="6" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="N2" s="14" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="O2" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="P2" s="4">
         <v>1234567</v>
       </c>
       <c r="Q2" s="7" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="3" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B3" s="4">
         <v>123456</v>
@@ -5197,36 +6725,36 @@
         <v>1111122222</v>
       </c>
       <c r="I3" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="J3" s="4">
+        <v>12345</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="L3" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="M3" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="N3" s="14" t="s">
+        <v>121</v>
+      </c>
+      <c r="O3" s="7" t="s">
         <v>26</v>
-      </c>
-      <c r="J3" s="4">
-        <v>12345</v>
-      </c>
-      <c r="K3" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="L3" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="M3" s="6" t="s">
-        <v>124</v>
-      </c>
-      <c r="N3" s="14" t="s">
-        <v>123</v>
-      </c>
-      <c r="O3" s="7" t="s">
-        <v>27</v>
       </c>
       <c r="P3" s="4">
         <v>1234456</v>
       </c>
       <c r="Q3" s="7" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="4" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B4" s="4">
         <v>123456</v>
@@ -5250,36 +6778,36 @@
         <v>1111133333</v>
       </c>
       <c r="I4" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="J4" s="4">
+        <v>12345</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="L4" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="M4" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="N4" s="14" t="s">
+        <v>121</v>
+      </c>
+      <c r="O4" s="7" t="s">
         <v>30</v>
-      </c>
-      <c r="J4" s="4">
-        <v>12345</v>
-      </c>
-      <c r="K4" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="L4" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="M4" s="6" t="s">
-        <v>124</v>
-      </c>
-      <c r="N4" s="14" t="s">
-        <v>123</v>
-      </c>
-      <c r="O4" s="7" t="s">
-        <v>31</v>
       </c>
       <c r="P4" s="4">
         <v>1234345</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="5" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B5" s="4">
         <v>123456</v>
@@ -5303,36 +6831,36 @@
         <v>1111144444</v>
       </c>
       <c r="I5" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="J5" s="4">
+        <v>12345</v>
+      </c>
+      <c r="K5" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="L5" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="M5" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="N5" s="14" t="s">
+        <v>121</v>
+      </c>
+      <c r="O5" s="7" t="s">
         <v>34</v>
-      </c>
-      <c r="J5" s="4">
-        <v>12345</v>
-      </c>
-      <c r="K5" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="L5" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="M5" s="6" t="s">
-        <v>124</v>
-      </c>
-      <c r="N5" s="14" t="s">
-        <v>123</v>
-      </c>
-      <c r="O5" s="7" t="s">
-        <v>35</v>
       </c>
       <c r="P5" s="4">
         <v>1234234</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="6" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B6" s="4">
         <v>123456</v>
@@ -5356,36 +6884,36 @@
         <v>1111155555</v>
       </c>
       <c r="I6" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="J6" s="4">
+        <v>12345</v>
+      </c>
+      <c r="K6" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="L6" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="M6" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="N6" s="14" t="s">
+        <v>121</v>
+      </c>
+      <c r="O6" s="7" t="s">
         <v>38</v>
-      </c>
-      <c r="J6" s="4">
-        <v>12345</v>
-      </c>
-      <c r="K6" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="L6" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="M6" s="6" t="s">
-        <v>124</v>
-      </c>
-      <c r="N6" s="14" t="s">
-        <v>123</v>
-      </c>
-      <c r="O6" s="7" t="s">
-        <v>39</v>
       </c>
       <c r="P6" s="4">
         <v>1234123</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="7" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B7" s="4">
         <v>123456</v>
@@ -5409,36 +6937,36 @@
         <v>1111166666</v>
       </c>
       <c r="I7" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="J7" s="4">
+        <v>12345</v>
+      </c>
+      <c r="K7" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="L7" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="M7" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="N7" s="14" t="s">
+        <v>121</v>
+      </c>
+      <c r="O7" s="7" t="s">
         <v>42</v>
-      </c>
-      <c r="J7" s="4">
-        <v>12345</v>
-      </c>
-      <c r="K7" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="L7" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="M7" s="6" t="s">
-        <v>124</v>
-      </c>
-      <c r="N7" s="14" t="s">
-        <v>123</v>
-      </c>
-      <c r="O7" s="7" t="s">
-        <v>43</v>
       </c>
       <c r="P7" s="4">
         <v>1234012</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="8" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B8" s="4">
         <v>123456</v>
@@ -5462,36 +6990,36 @@
         <v>1111177777</v>
       </c>
       <c r="I8" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="J8" s="4">
+        <v>12345</v>
+      </c>
+      <c r="K8" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="L8" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="M8" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="N8" s="14" t="s">
+        <v>121</v>
+      </c>
+      <c r="O8" s="7" t="s">
         <v>46</v>
-      </c>
-      <c r="J8" s="4">
-        <v>12345</v>
-      </c>
-      <c r="K8" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="L8" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="M8" s="6" t="s">
-        <v>124</v>
-      </c>
-      <c r="N8" s="14" t="s">
-        <v>123</v>
-      </c>
-      <c r="O8" s="7" t="s">
-        <v>47</v>
       </c>
       <c r="P8" s="4">
         <v>1233901</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="9" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B9" s="4">
         <v>123456</v>
@@ -5515,7 +7043,7 @@
         <v>1111188888</v>
       </c>
       <c r="I9" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J9" s="4">
         <v>12345</v>
@@ -5527,24 +7055,24 @@
         <v>21</v>
       </c>
       <c r="M9" s="6" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="N9" s="14" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="P9" s="4">
         <v>1233790</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="10" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B10" s="4">
         <v>123456</v>
@@ -5568,36 +7096,36 @@
         <v>1111199999</v>
       </c>
       <c r="I10" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="J10" s="4">
+        <v>12345</v>
+      </c>
+      <c r="K10" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="L10" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="M10" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="N10" s="14" t="s">
+        <v>121</v>
+      </c>
+      <c r="O10" s="7" t="s">
         <v>53</v>
-      </c>
-      <c r="J10" s="4">
-        <v>12345</v>
-      </c>
-      <c r="K10" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="L10" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="M10" s="6" t="s">
-        <v>124</v>
-      </c>
-      <c r="N10" s="14" t="s">
-        <v>123</v>
-      </c>
-      <c r="O10" s="7" t="s">
-        <v>54</v>
       </c>
       <c r="P10" s="4">
         <v>1233679</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="11" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B11" s="4">
         <v>123456</v>
@@ -5621,7 +7149,7 @@
         <v>1111211110</v>
       </c>
       <c r="I11" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J11" s="4">
         <v>12345</v>
@@ -5633,24 +7161,24 @@
         <v>21</v>
       </c>
       <c r="M11" s="6" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="N11" s="14" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="P11" s="4">
         <v>1233568</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="12" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B12" s="4">
         <v>123456</v>
@@ -5674,7 +7202,7 @@
         <v>1111222221</v>
       </c>
       <c r="I12" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J12" s="4">
         <v>12345</v>
@@ -5686,24 +7214,24 @@
         <v>21</v>
       </c>
       <c r="M12" s="6" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="N12" s="14" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="P12" s="4">
         <v>1233457</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="13" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B13" s="4">
         <v>123456</v>
@@ -5727,7 +7255,7 @@
         <v>1111233332</v>
       </c>
       <c r="I13" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="J13" s="4">
         <v>12345</v>
@@ -5739,24 +7267,24 @@
         <v>21</v>
       </c>
       <c r="M13" s="6" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="N13" s="14" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="P13" s="4">
         <v>1233346</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="14" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B14" s="4">
         <v>123456</v>
@@ -5780,7 +7308,7 @@
         <v>1111244443</v>
       </c>
       <c r="I14" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="J14" s="4">
         <v>12345</v>
@@ -5792,24 +7320,24 @@
         <v>21</v>
       </c>
       <c r="M14" s="6" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="N14" s="14" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="P14" s="4">
         <v>1233235</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="15" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B15" s="4">
         <v>123456</v>
@@ -5833,36 +7361,36 @@
         <v>1111255554</v>
       </c>
       <c r="I15" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="J15" s="4">
+        <v>12345</v>
+      </c>
+      <c r="K15" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="L15" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="M15" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="N15" s="14" t="s">
+        <v>121</v>
+      </c>
+      <c r="O15" s="7" t="s">
         <v>69</v>
-      </c>
-      <c r="J15" s="4">
-        <v>12345</v>
-      </c>
-      <c r="K15" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="L15" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="M15" s="6" t="s">
-        <v>124</v>
-      </c>
-      <c r="N15" s="14" t="s">
-        <v>123</v>
-      </c>
-      <c r="O15" s="7" t="s">
-        <v>70</v>
       </c>
       <c r="P15" s="4">
         <v>1233124</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="16" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B16" s="4">
         <v>123456</v>
@@ -5886,36 +7414,36 @@
         <v>1111266665</v>
       </c>
       <c r="I16" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="J16" s="4">
+        <v>12345</v>
+      </c>
+      <c r="K16" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="L16" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="M16" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="N16" s="14" t="s">
+        <v>121</v>
+      </c>
+      <c r="O16" s="7" t="s">
         <v>72</v>
-      </c>
-      <c r="J16" s="4">
-        <v>12345</v>
-      </c>
-      <c r="K16" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="L16" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="M16" s="6" t="s">
-        <v>124</v>
-      </c>
-      <c r="N16" s="14" t="s">
-        <v>123</v>
-      </c>
-      <c r="O16" s="7" t="s">
-        <v>73</v>
       </c>
       <c r="P16" s="4">
         <v>1233013</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="17" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B17" s="4">
         <v>123456</v>
@@ -5939,7 +7467,7 @@
         <v>1111277776</v>
       </c>
       <c r="I17" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J17" s="4">
         <v>12345</v>
@@ -5951,24 +7479,24 @@
         <v>21</v>
       </c>
       <c r="M17" s="6" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="N17" s="14" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="P17" s="4">
         <v>1232902</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="18" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B18" s="4">
         <v>123456</v>
@@ -5992,7 +7520,7 @@
         <v>1111288887</v>
       </c>
       <c r="I18" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="J18" s="4">
         <v>12345</v>
@@ -6004,24 +7532,24 @@
         <v>21</v>
       </c>
       <c r="M18" s="6" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="N18" s="14" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="P18" s="4">
         <v>1232791</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="19" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B19" s="4">
         <v>123456</v>
@@ -6045,7 +7573,7 @@
         <v>1111299998</v>
       </c>
       <c r="I19" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="J19" s="4">
         <v>12345</v>
@@ -6057,24 +7585,24 @@
         <v>21</v>
       </c>
       <c r="M19" s="6" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="N19" s="14" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="P19" s="4">
         <v>1232680</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="20" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B20" s="4">
         <v>123456</v>
@@ -6098,7 +7626,7 @@
         <v>1111311109</v>
       </c>
       <c r="I20" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J20" s="4">
         <v>12345</v>
@@ -6110,24 +7638,24 @@
         <v>21</v>
       </c>
       <c r="M20" s="6" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="N20" s="14" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="P20" s="4">
         <v>1232569</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="21" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B21" s="4">
         <v>123456</v>
@@ -6151,7 +7679,7 @@
         <v>1111322220</v>
       </c>
       <c r="I21" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J21" s="4">
         <v>12345</v>
@@ -6163,19 +7691,19 @@
         <v>21</v>
       </c>
       <c r="M21" s="6" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="N21" s="14" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="P21" s="4">
         <v>1232458</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.25">
@@ -6269,7 +7797,7 @@
     </row>
     <row r="2" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B2" s="4">
         <v>123456</v>
@@ -6305,24 +7833,24 @@
         <v>21</v>
       </c>
       <c r="M2" s="6" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="N2" s="14" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="O2" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="P2" s="4">
         <v>1234567</v>
       </c>
       <c r="Q2" s="15" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="3" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B3" s="4">
         <v>123456</v>
@@ -6346,36 +7874,36 @@
         <v>1111122222</v>
       </c>
       <c r="I3" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="J3" s="4">
+        <v>12345</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="L3" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="M3" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="N3" s="14" t="s">
+        <v>121</v>
+      </c>
+      <c r="O3" s="6" t="s">
         <v>26</v>
-      </c>
-      <c r="J3" s="4">
-        <v>12345</v>
-      </c>
-      <c r="K3" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="L3" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="M3" s="6" t="s">
-        <v>124</v>
-      </c>
-      <c r="N3" s="14" t="s">
-        <v>123</v>
-      </c>
-      <c r="O3" s="6" t="s">
-        <v>27</v>
       </c>
       <c r="P3" s="4">
         <v>1234456</v>
       </c>
       <c r="Q3" s="15" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="4" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B4" s="4">
         <v>123456</v>
@@ -6399,36 +7927,36 @@
         <v>1111133333</v>
       </c>
       <c r="I4" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="J4" s="4">
+        <v>12345</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="L4" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="M4" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="N4" s="14" t="s">
+        <v>121</v>
+      </c>
+      <c r="O4" s="6" t="s">
         <v>30</v>
-      </c>
-      <c r="J4" s="4">
-        <v>12345</v>
-      </c>
-      <c r="K4" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="L4" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="M4" s="6" t="s">
-        <v>124</v>
-      </c>
-      <c r="N4" s="14" t="s">
-        <v>123</v>
-      </c>
-      <c r="O4" s="6" t="s">
-        <v>31</v>
       </c>
       <c r="P4" s="4">
         <v>1234345</v>
       </c>
       <c r="Q4" s="15" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="5" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B5" s="4">
         <v>123456</v>
@@ -6452,36 +7980,36 @@
         <v>1111144444</v>
       </c>
       <c r="I5" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="J5" s="4">
+        <v>12345</v>
+      </c>
+      <c r="K5" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="L5" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="M5" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="N5" s="14" t="s">
+        <v>121</v>
+      </c>
+      <c r="O5" s="6" t="s">
         <v>34</v>
-      </c>
-      <c r="J5" s="4">
-        <v>12345</v>
-      </c>
-      <c r="K5" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="L5" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="M5" s="6" t="s">
-        <v>124</v>
-      </c>
-      <c r="N5" s="14" t="s">
-        <v>123</v>
-      </c>
-      <c r="O5" s="6" t="s">
-        <v>35</v>
       </c>
       <c r="P5" s="4">
         <v>1234234</v>
       </c>
       <c r="Q5" s="15" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="6" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B6" s="4">
         <v>123456</v>
@@ -6505,36 +8033,36 @@
         <v>1111155555</v>
       </c>
       <c r="I6" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="J6" s="4">
+        <v>12345</v>
+      </c>
+      <c r="K6" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="L6" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="M6" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="N6" s="14" t="s">
+        <v>121</v>
+      </c>
+      <c r="O6" s="6" t="s">
         <v>38</v>
-      </c>
-      <c r="J6" s="4">
-        <v>12345</v>
-      </c>
-      <c r="K6" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="L6" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="M6" s="6" t="s">
-        <v>124</v>
-      </c>
-      <c r="N6" s="14" t="s">
-        <v>123</v>
-      </c>
-      <c r="O6" s="6" t="s">
-        <v>39</v>
       </c>
       <c r="P6" s="4">
         <v>1234123</v>
       </c>
       <c r="Q6" s="15" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="7" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B7" s="4">
         <v>123456</v>
@@ -6558,36 +8086,36 @@
         <v>1111166666</v>
       </c>
       <c r="I7" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="J7" s="4">
+        <v>12345</v>
+      </c>
+      <c r="K7" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="L7" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="M7" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="N7" s="14" t="s">
+        <v>121</v>
+      </c>
+      <c r="O7" s="6" t="s">
         <v>42</v>
-      </c>
-      <c r="J7" s="4">
-        <v>12345</v>
-      </c>
-      <c r="K7" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="L7" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="M7" s="6" t="s">
-        <v>124</v>
-      </c>
-      <c r="N7" s="14" t="s">
-        <v>123</v>
-      </c>
-      <c r="O7" s="6" t="s">
-        <v>43</v>
       </c>
       <c r="P7" s="4">
         <v>1234012</v>
       </c>
       <c r="Q7" s="15" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="8" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B8" s="4">
         <v>123456</v>
@@ -6611,36 +8139,36 @@
         <v>1111177777</v>
       </c>
       <c r="I8" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="J8" s="4">
+        <v>12345</v>
+      </c>
+      <c r="K8" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="L8" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="M8" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="N8" s="14" t="s">
+        <v>121</v>
+      </c>
+      <c r="O8" s="7" t="s">
         <v>46</v>
-      </c>
-      <c r="J8" s="4">
-        <v>12345</v>
-      </c>
-      <c r="K8" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="L8" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="M8" s="6" t="s">
-        <v>124</v>
-      </c>
-      <c r="N8" s="14" t="s">
-        <v>123</v>
-      </c>
-      <c r="O8" s="7" t="s">
-        <v>47</v>
       </c>
       <c r="P8" s="4">
         <v>1233901</v>
       </c>
       <c r="Q8" s="15" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="9" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B9" s="4">
         <v>123456</v>
@@ -6664,7 +8192,7 @@
         <v>1111188888</v>
       </c>
       <c r="I9" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J9" s="4">
         <v>12345</v>
@@ -6676,24 +8204,24 @@
         <v>21</v>
       </c>
       <c r="M9" s="6" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="N9" s="14" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="O9" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="P9" s="4">
         <v>1233790</v>
       </c>
       <c r="Q9" s="15" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="10" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B10" s="4">
         <v>123456</v>
@@ -6717,36 +8245,36 @@
         <v>1111199999</v>
       </c>
       <c r="I10" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="J10" s="4">
+        <v>12345</v>
+      </c>
+      <c r="K10" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="L10" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="M10" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="N10" s="14" t="s">
+        <v>121</v>
+      </c>
+      <c r="O10" s="7" t="s">
         <v>53</v>
-      </c>
-      <c r="J10" s="4">
-        <v>12345</v>
-      </c>
-      <c r="K10" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="L10" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="M10" s="6" t="s">
-        <v>124</v>
-      </c>
-      <c r="N10" s="14" t="s">
-        <v>123</v>
-      </c>
-      <c r="O10" s="7" t="s">
-        <v>54</v>
       </c>
       <c r="P10" s="4">
         <v>1233679</v>
       </c>
       <c r="Q10" s="15" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="11" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B11" s="4">
         <v>123456</v>
@@ -6770,7 +8298,7 @@
         <v>1111211110</v>
       </c>
       <c r="I11" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J11" s="4">
         <v>12345</v>
@@ -6782,24 +8310,24 @@
         <v>21</v>
       </c>
       <c r="M11" s="6" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="N11" s="14" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="O11" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="P11" s="4">
         <v>1233568</v>
       </c>
       <c r="Q11" s="15" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="12" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B12" s="4">
         <v>123456</v>
@@ -6823,7 +8351,7 @@
         <v>1111222221</v>
       </c>
       <c r="I12" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J12" s="4">
         <v>12345</v>
@@ -6835,24 +8363,24 @@
         <v>21</v>
       </c>
       <c r="M12" s="6" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="N12" s="14" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="P12" s="4">
         <v>1233457</v>
       </c>
       <c r="Q12" s="15" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="13" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B13" s="4">
         <v>123456</v>
@@ -6876,7 +8404,7 @@
         <v>1111233332</v>
       </c>
       <c r="I13" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="J13" s="4">
         <v>12345</v>
@@ -6888,24 +8416,24 @@
         <v>21</v>
       </c>
       <c r="M13" s="6" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="N13" s="14" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="P13" s="4">
         <v>1233346</v>
       </c>
       <c r="Q13" s="15" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="14" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B14" s="4">
         <v>123456</v>
@@ -6929,7 +8457,7 @@
         <v>1111244443</v>
       </c>
       <c r="I14" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="J14" s="4">
         <v>12345</v>
@@ -6941,24 +8469,24 @@
         <v>21</v>
       </c>
       <c r="M14" s="6" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="N14" s="14" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="O14" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="P14" s="4">
         <v>1233235</v>
       </c>
       <c r="Q14" s="15" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="15" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B15" s="4">
         <v>123456</v>
@@ -6982,36 +8510,36 @@
         <v>1111255554</v>
       </c>
       <c r="I15" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="J15" s="4">
+        <v>12345</v>
+      </c>
+      <c r="K15" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="L15" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="M15" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="N15" s="14" t="s">
+        <v>121</v>
+      </c>
+      <c r="O15" s="6" t="s">
         <v>69</v>
-      </c>
-      <c r="J15" s="4">
-        <v>12345</v>
-      </c>
-      <c r="K15" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="L15" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="M15" s="6" t="s">
-        <v>124</v>
-      </c>
-      <c r="N15" s="14" t="s">
-        <v>123</v>
-      </c>
-      <c r="O15" s="6" t="s">
-        <v>70</v>
       </c>
       <c r="P15" s="4">
         <v>1233124</v>
       </c>
       <c r="Q15" s="15" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="16" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B16" s="4">
         <v>123456</v>
@@ -7035,36 +8563,36 @@
         <v>1111266665</v>
       </c>
       <c r="I16" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="J16" s="4">
+        <v>12345</v>
+      </c>
+      <c r="K16" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="L16" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="M16" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="N16" s="14" t="s">
+        <v>121</v>
+      </c>
+      <c r="O16" s="6" t="s">
         <v>72</v>
-      </c>
-      <c r="J16" s="4">
-        <v>12345</v>
-      </c>
-      <c r="K16" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="L16" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="M16" s="6" t="s">
-        <v>124</v>
-      </c>
-      <c r="N16" s="14" t="s">
-        <v>123</v>
-      </c>
-      <c r="O16" s="6" t="s">
-        <v>73</v>
       </c>
       <c r="P16" s="4">
         <v>1233013</v>
       </c>
       <c r="Q16" s="15" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="17" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B17" s="4">
         <v>123456</v>
@@ -7088,7 +8616,7 @@
         <v>1111277776</v>
       </c>
       <c r="I17" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J17" s="4">
         <v>12345</v>
@@ -7100,24 +8628,24 @@
         <v>21</v>
       </c>
       <c r="M17" s="6" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="N17" s="14" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="O17" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="P17" s="4">
         <v>1232902</v>
       </c>
       <c r="Q17" s="15" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="18" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B18" s="4">
         <v>123456</v>
@@ -7141,7 +8669,7 @@
         <v>1111288887</v>
       </c>
       <c r="I18" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="J18" s="4">
         <v>12345</v>
@@ -7153,24 +8681,24 @@
         <v>21</v>
       </c>
       <c r="M18" s="6" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="N18" s="14" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="O18" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="P18" s="4">
         <v>1232791</v>
       </c>
       <c r="Q18" s="15" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="19" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B19" s="4">
         <v>123456</v>
@@ -7194,7 +8722,7 @@
         <v>1111299998</v>
       </c>
       <c r="I19" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="J19" s="4">
         <v>12345</v>
@@ -7206,24 +8734,24 @@
         <v>21</v>
       </c>
       <c r="M19" s="6" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="N19" s="14" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="O19" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="P19" s="4">
         <v>1232680</v>
       </c>
       <c r="Q19" s="15" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="20" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B20" s="4">
         <v>123456</v>
@@ -7247,7 +8775,7 @@
         <v>1111311109</v>
       </c>
       <c r="I20" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J20" s="4">
         <v>12345</v>
@@ -7259,24 +8787,24 @@
         <v>21</v>
       </c>
       <c r="M20" s="6" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="N20" s="14" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="O20" s="6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="P20" s="4">
         <v>1232569</v>
       </c>
       <c r="Q20" s="15" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="21" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B21" s="4">
         <v>123456</v>
@@ -7300,7 +8828,7 @@
         <v>1111322220</v>
       </c>
       <c r="I21" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J21" s="4">
         <v>12345</v>
@@ -7312,19 +8840,19 @@
         <v>21</v>
       </c>
       <c r="M21" s="6" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="N21" s="14" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="O21" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="P21" s="4">
         <v>1232458</v>
       </c>
       <c r="Q21" s="15" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="22" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -7424,7 +8952,7 @@
     </row>
     <row r="2" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B2" s="4">
         <v>123456</v>
@@ -7460,24 +8988,24 @@
         <v>21</v>
       </c>
       <c r="M2" s="6" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="N2" s="14" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="O2" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="P2" s="4">
         <v>1234567</v>
       </c>
       <c r="Q2" s="7" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="3" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B3" s="4">
         <v>123456</v>
@@ -7501,36 +9029,36 @@
         <v>1111122222</v>
       </c>
       <c r="I3" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="J3" s="4">
+        <v>12345</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="L3" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="M3" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="N3" s="14" t="s">
+        <v>121</v>
+      </c>
+      <c r="O3" s="7" t="s">
         <v>26</v>
-      </c>
-      <c r="J3" s="4">
-        <v>12345</v>
-      </c>
-      <c r="K3" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="L3" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="M3" s="6" t="s">
-        <v>124</v>
-      </c>
-      <c r="N3" s="14" t="s">
-        <v>123</v>
-      </c>
-      <c r="O3" s="7" t="s">
-        <v>27</v>
       </c>
       <c r="P3" s="4">
         <v>1234456</v>
       </c>
       <c r="Q3" s="7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="4" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B4" s="4">
         <v>123456</v>
@@ -7554,36 +9082,36 @@
         <v>1111133333</v>
       </c>
       <c r="I4" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="J4" s="4">
+        <v>12345</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="L4" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="M4" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="N4" s="14" t="s">
+        <v>121</v>
+      </c>
+      <c r="O4" s="7" t="s">
         <v>30</v>
-      </c>
-      <c r="J4" s="4">
-        <v>12345</v>
-      </c>
-      <c r="K4" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="L4" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="M4" s="6" t="s">
-        <v>124</v>
-      </c>
-      <c r="N4" s="14" t="s">
-        <v>123</v>
-      </c>
-      <c r="O4" s="7" t="s">
-        <v>31</v>
       </c>
       <c r="P4" s="4">
         <v>1234345</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="5" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B5" s="4">
         <v>123456</v>
@@ -7607,36 +9135,36 @@
         <v>1111144444</v>
       </c>
       <c r="I5" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="J5" s="4">
+        <v>12345</v>
+      </c>
+      <c r="K5" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="L5" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="M5" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="N5" s="14" t="s">
+        <v>121</v>
+      </c>
+      <c r="O5" s="7" t="s">
         <v>34</v>
-      </c>
-      <c r="J5" s="4">
-        <v>12345</v>
-      </c>
-      <c r="K5" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="L5" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="M5" s="6" t="s">
-        <v>124</v>
-      </c>
-      <c r="N5" s="14" t="s">
-        <v>123</v>
-      </c>
-      <c r="O5" s="7" t="s">
-        <v>35</v>
       </c>
       <c r="P5" s="4">
         <v>1234234</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="6" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B6" s="4">
         <v>123456</v>
@@ -7660,36 +9188,36 @@
         <v>1111155555</v>
       </c>
       <c r="I6" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="J6" s="4">
+        <v>12345</v>
+      </c>
+      <c r="K6" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="L6" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="M6" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="N6" s="14" t="s">
+        <v>121</v>
+      </c>
+      <c r="O6" s="7" t="s">
         <v>38</v>
-      </c>
-      <c r="J6" s="4">
-        <v>12345</v>
-      </c>
-      <c r="K6" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="L6" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="M6" s="6" t="s">
-        <v>124</v>
-      </c>
-      <c r="N6" s="14" t="s">
-        <v>123</v>
-      </c>
-      <c r="O6" s="7" t="s">
-        <v>39</v>
       </c>
       <c r="P6" s="4">
         <v>1234123</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="7" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B7" s="4">
         <v>123456</v>
@@ -7713,36 +9241,36 @@
         <v>1111166666</v>
       </c>
       <c r="I7" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="J7" s="4">
+        <v>12345</v>
+      </c>
+      <c r="K7" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="L7" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="M7" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="N7" s="14" t="s">
+        <v>121</v>
+      </c>
+      <c r="O7" s="7" t="s">
         <v>42</v>
-      </c>
-      <c r="J7" s="4">
-        <v>12345</v>
-      </c>
-      <c r="K7" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="L7" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="M7" s="6" t="s">
-        <v>124</v>
-      </c>
-      <c r="N7" s="14" t="s">
-        <v>123</v>
-      </c>
-      <c r="O7" s="7" t="s">
-        <v>43</v>
       </c>
       <c r="P7" s="4">
         <v>1234012</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="8" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B8" s="4">
         <v>123456</v>
@@ -7766,36 +9294,36 @@
         <v>1111177777</v>
       </c>
       <c r="I8" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="J8" s="4">
+        <v>12345</v>
+      </c>
+      <c r="K8" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="L8" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="M8" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="N8" s="14" t="s">
+        <v>121</v>
+      </c>
+      <c r="O8" s="7" t="s">
         <v>46</v>
-      </c>
-      <c r="J8" s="4">
-        <v>12345</v>
-      </c>
-      <c r="K8" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="L8" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="M8" s="6" t="s">
-        <v>124</v>
-      </c>
-      <c r="N8" s="14" t="s">
-        <v>123</v>
-      </c>
-      <c r="O8" s="7" t="s">
-        <v>47</v>
       </c>
       <c r="P8" s="4">
         <v>1233901</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="9" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B9" s="4">
         <v>123456</v>
@@ -7819,7 +9347,7 @@
         <v>1111188888</v>
       </c>
       <c r="I9" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J9" s="4">
         <v>12345</v>
@@ -7831,24 +9359,24 @@
         <v>21</v>
       </c>
       <c r="M9" s="6" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="N9" s="14" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="P9" s="4">
         <v>1233790</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="10" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B10" s="4">
         <v>123456</v>
@@ -7872,36 +9400,36 @@
         <v>1111199999</v>
       </c>
       <c r="I10" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="J10" s="4">
+        <v>12345</v>
+      </c>
+      <c r="K10" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="L10" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="M10" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="N10" s="14" t="s">
+        <v>121</v>
+      </c>
+      <c r="O10" s="7" t="s">
         <v>53</v>
-      </c>
-      <c r="J10" s="4">
-        <v>12345</v>
-      </c>
-      <c r="K10" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="L10" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="M10" s="6" t="s">
-        <v>124</v>
-      </c>
-      <c r="N10" s="14" t="s">
-        <v>123</v>
-      </c>
-      <c r="O10" s="7" t="s">
-        <v>54</v>
       </c>
       <c r="P10" s="4">
         <v>1233679</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="11" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B11" s="4">
         <v>123456</v>
@@ -7925,7 +9453,7 @@
         <v>1111211110</v>
       </c>
       <c r="I11" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J11" s="4">
         <v>12345</v>
@@ -7937,24 +9465,24 @@
         <v>21</v>
       </c>
       <c r="M11" s="6" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="N11" s="14" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="P11" s="4">
         <v>1233568</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="12" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B12" s="4">
         <v>123456</v>
@@ -7978,7 +9506,7 @@
         <v>1111222221</v>
       </c>
       <c r="I12" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J12" s="4">
         <v>12345</v>
@@ -7990,24 +9518,24 @@
         <v>21</v>
       </c>
       <c r="M12" s="6" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="N12" s="14" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="P12" s="4">
         <v>1233457</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="13" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B13" s="4">
         <v>123456</v>
@@ -8031,7 +9559,7 @@
         <v>1111233332</v>
       </c>
       <c r="I13" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="J13" s="4">
         <v>12345</v>
@@ -8043,24 +9571,24 @@
         <v>21</v>
       </c>
       <c r="M13" s="6" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="N13" s="14" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="P13" s="4">
         <v>1233346</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="14" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B14" s="4">
         <v>123456</v>
@@ -8084,7 +9612,7 @@
         <v>1111244443</v>
       </c>
       <c r="I14" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="J14" s="4">
         <v>12345</v>
@@ -8096,24 +9624,24 @@
         <v>21</v>
       </c>
       <c r="M14" s="6" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="N14" s="14" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="P14" s="4">
         <v>1233235</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="15" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B15" s="4">
         <v>123456</v>
@@ -8137,36 +9665,36 @@
         <v>1111255554</v>
       </c>
       <c r="I15" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="J15" s="4">
+        <v>12345</v>
+      </c>
+      <c r="K15" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="L15" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="M15" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="N15" s="14" t="s">
+        <v>121</v>
+      </c>
+      <c r="O15" s="7" t="s">
         <v>69</v>
-      </c>
-      <c r="J15" s="4">
-        <v>12345</v>
-      </c>
-      <c r="K15" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="L15" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="M15" s="6" t="s">
-        <v>124</v>
-      </c>
-      <c r="N15" s="14" t="s">
-        <v>123</v>
-      </c>
-      <c r="O15" s="7" t="s">
-        <v>70</v>
       </c>
       <c r="P15" s="4">
         <v>1233124</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="16" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B16" s="4">
         <v>123456</v>
@@ -8190,36 +9718,36 @@
         <v>1111266665</v>
       </c>
       <c r="I16" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="J16" s="4">
+        <v>12345</v>
+      </c>
+      <c r="K16" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="L16" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="M16" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="N16" s="14" t="s">
+        <v>121</v>
+      </c>
+      <c r="O16" s="7" t="s">
         <v>72</v>
-      </c>
-      <c r="J16" s="4">
-        <v>12345</v>
-      </c>
-      <c r="K16" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="L16" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="M16" s="6" t="s">
-        <v>124</v>
-      </c>
-      <c r="N16" s="14" t="s">
-        <v>123</v>
-      </c>
-      <c r="O16" s="7" t="s">
-        <v>73</v>
       </c>
       <c r="P16" s="4">
         <v>1233013</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="17" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B17" s="4">
         <v>123456</v>
@@ -8243,7 +9771,7 @@
         <v>1111277776</v>
       </c>
       <c r="I17" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J17" s="4">
         <v>12345</v>
@@ -8255,24 +9783,24 @@
         <v>21</v>
       </c>
       <c r="M17" s="6" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="N17" s="14" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="P17" s="4">
         <v>1232902</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="18" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B18" s="4">
         <v>123456</v>
@@ -8296,7 +9824,7 @@
         <v>1111288887</v>
       </c>
       <c r="I18" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="J18" s="4">
         <v>12345</v>
@@ -8308,24 +9836,24 @@
         <v>21</v>
       </c>
       <c r="M18" s="6" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="N18" s="14" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="P18" s="4">
         <v>1232791</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="19" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B19" s="4">
         <v>123456</v>
@@ -8349,7 +9877,7 @@
         <v>1111299998</v>
       </c>
       <c r="I19" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="J19" s="4">
         <v>12345</v>
@@ -8361,24 +9889,24 @@
         <v>21</v>
       </c>
       <c r="M19" s="6" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="N19" s="14" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="P19" s="4">
         <v>1232680</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="20" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B20" s="4">
         <v>123456</v>
@@ -8402,7 +9930,7 @@
         <v>1111311109</v>
       </c>
       <c r="I20" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J20" s="4">
         <v>12345</v>
@@ -8414,24 +9942,24 @@
         <v>21</v>
       </c>
       <c r="M20" s="6" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="N20" s="14" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="P20" s="4">
         <v>1232569</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="21" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B21" s="4">
         <v>123456</v>
@@ -8455,7 +9983,7 @@
         <v>1111322220</v>
       </c>
       <c r="I21" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J21" s="4">
         <v>12345</v>
@@ -8467,19 +9995,19 @@
         <v>21</v>
       </c>
       <c r="M21" s="6" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="N21" s="14" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="P21" s="4">
         <v>1232458</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="22" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -8582,7 +10110,7 @@
     </row>
     <row r="2" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B2" s="4">
         <v>123456</v>
@@ -8618,27 +10146,27 @@
         <v>21</v>
       </c>
       <c r="M2" s="6" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="N2" s="14" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="O2" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="P2" s="4">
         <v>1234567</v>
       </c>
       <c r="Q2" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="R2" s="6" t="s">
         <v>24</v>
-      </c>
-      <c r="R2" s="6" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B3" s="4">
         <v>123456</v>
@@ -8662,39 +10190,39 @@
         <v>1111122222</v>
       </c>
       <c r="I3" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="J3" s="4">
+        <v>12345</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="L3" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="M3" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="N3" s="14" t="s">
+        <v>121</v>
+      </c>
+      <c r="O3" s="7" t="s">
         <v>26</v>
-      </c>
-      <c r="J3" s="4">
-        <v>12345</v>
-      </c>
-      <c r="K3" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="L3" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="M3" s="6" t="s">
-        <v>124</v>
-      </c>
-      <c r="N3" s="14" t="s">
-        <v>123</v>
-      </c>
-      <c r="O3" s="7" t="s">
-        <v>27</v>
       </c>
       <c r="P3" s="4">
         <v>1234456</v>
       </c>
       <c r="Q3" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="R3" s="6" t="s">
         <v>28</v>
-      </c>
-      <c r="R3" s="6" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B4" s="4">
         <v>123456</v>
@@ -8718,39 +10246,39 @@
         <v>1111133333</v>
       </c>
       <c r="I4" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="J4" s="4">
+        <v>12345</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="L4" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="M4" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="N4" s="14" t="s">
+        <v>121</v>
+      </c>
+      <c r="O4" s="7" t="s">
         <v>30</v>
-      </c>
-      <c r="J4" s="4">
-        <v>12345</v>
-      </c>
-      <c r="K4" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="L4" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="M4" s="6" t="s">
-        <v>124</v>
-      </c>
-      <c r="N4" s="14" t="s">
-        <v>123</v>
-      </c>
-      <c r="O4" s="7" t="s">
-        <v>31</v>
       </c>
       <c r="P4" s="4">
         <v>1234345</v>
       </c>
       <c r="Q4" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="R4" s="6" t="s">
         <v>32</v>
-      </c>
-      <c r="R4" s="6" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="5" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B5" s="4">
         <v>123456</v>
@@ -8774,39 +10302,39 @@
         <v>1111144444</v>
       </c>
       <c r="I5" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="J5" s="4">
+        <v>12345</v>
+      </c>
+      <c r="K5" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="L5" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="M5" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="N5" s="14" t="s">
+        <v>121</v>
+      </c>
+      <c r="O5" s="7" t="s">
         <v>34</v>
-      </c>
-      <c r="J5" s="4">
-        <v>12345</v>
-      </c>
-      <c r="K5" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="L5" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="M5" s="6" t="s">
-        <v>124</v>
-      </c>
-      <c r="N5" s="14" t="s">
-        <v>123</v>
-      </c>
-      <c r="O5" s="7" t="s">
-        <v>35</v>
       </c>
       <c r="P5" s="4">
         <v>1234234</v>
       </c>
       <c r="Q5" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="R5" s="6" t="s">
         <v>36</v>
-      </c>
-      <c r="R5" s="6" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="6" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B6" s="4">
         <v>123456</v>
@@ -8830,39 +10358,39 @@
         <v>1111155555</v>
       </c>
       <c r="I6" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="J6" s="4">
+        <v>12345</v>
+      </c>
+      <c r="K6" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="L6" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="M6" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="N6" s="14" t="s">
+        <v>121</v>
+      </c>
+      <c r="O6" s="7" t="s">
         <v>38</v>
-      </c>
-      <c r="J6" s="4">
-        <v>12345</v>
-      </c>
-      <c r="K6" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="L6" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="M6" s="6" t="s">
-        <v>124</v>
-      </c>
-      <c r="N6" s="14" t="s">
-        <v>123</v>
-      </c>
-      <c r="O6" s="7" t="s">
-        <v>39</v>
       </c>
       <c r="P6" s="4">
         <v>1234123</v>
       </c>
       <c r="Q6" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="R6" s="6" t="s">
         <v>40</v>
-      </c>
-      <c r="R6" s="6" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="7" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B7" s="4">
         <v>123456</v>
@@ -8886,39 +10414,39 @@
         <v>1111166666</v>
       </c>
       <c r="I7" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="J7" s="4">
+        <v>12345</v>
+      </c>
+      <c r="K7" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="L7" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="M7" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="N7" s="14" t="s">
+        <v>121</v>
+      </c>
+      <c r="O7" s="7" t="s">
         <v>42</v>
-      </c>
-      <c r="J7" s="4">
-        <v>12345</v>
-      </c>
-      <c r="K7" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="L7" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="M7" s="6" t="s">
-        <v>124</v>
-      </c>
-      <c r="N7" s="14" t="s">
-        <v>123</v>
-      </c>
-      <c r="O7" s="7" t="s">
-        <v>43</v>
       </c>
       <c r="P7" s="4">
         <v>1234012</v>
       </c>
       <c r="Q7" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="R7" s="6" t="s">
         <v>44</v>
-      </c>
-      <c r="R7" s="6" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="8" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B8" s="4">
         <v>123456</v>
@@ -8942,39 +10470,39 @@
         <v>1111177777</v>
       </c>
       <c r="I8" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="J8" s="4">
+        <v>12345</v>
+      </c>
+      <c r="K8" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="L8" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="M8" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="N8" s="14" t="s">
+        <v>121</v>
+      </c>
+      <c r="O8" s="7" t="s">
         <v>46</v>
-      </c>
-      <c r="J8" s="4">
-        <v>12345</v>
-      </c>
-      <c r="K8" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="L8" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="M8" s="6" t="s">
-        <v>124</v>
-      </c>
-      <c r="N8" s="14" t="s">
-        <v>123</v>
-      </c>
-      <c r="O8" s="7" t="s">
-        <v>47</v>
       </c>
       <c r="P8" s="4">
         <v>1233901</v>
       </c>
       <c r="Q8" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="R8" s="6" t="s">
         <v>48</v>
-      </c>
-      <c r="R8" s="6" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B9" s="4">
         <v>123456</v>
@@ -8998,7 +10526,7 @@
         <v>1111188888</v>
       </c>
       <c r="I9" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J9" s="4">
         <v>12345</v>
@@ -9010,27 +10538,27 @@
         <v>21</v>
       </c>
       <c r="M9" s="6" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="N9" s="14" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="P9" s="4">
         <v>1233790</v>
       </c>
       <c r="Q9" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="R9" s="6" t="s">
         <v>51</v>
-      </c>
-      <c r="R9" s="6" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="10" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B10" s="4">
         <v>123456</v>
@@ -9054,39 +10582,39 @@
         <v>1111199999</v>
       </c>
       <c r="I10" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="J10" s="4">
+        <v>12345</v>
+      </c>
+      <c r="K10" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="L10" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="M10" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="N10" s="14" t="s">
+        <v>121</v>
+      </c>
+      <c r="O10" s="7" t="s">
         <v>53</v>
-      </c>
-      <c r="J10" s="4">
-        <v>12345</v>
-      </c>
-      <c r="K10" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="L10" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="M10" s="6" t="s">
-        <v>124</v>
-      </c>
-      <c r="N10" s="14" t="s">
-        <v>123</v>
-      </c>
-      <c r="O10" s="7" t="s">
-        <v>54</v>
       </c>
       <c r="P10" s="4">
         <v>1233679</v>
       </c>
       <c r="Q10" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="R10" s="6" t="s">
         <v>55</v>
-      </c>
-      <c r="R10" s="6" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="11" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B11" s="4">
         <v>123456</v>
@@ -9110,7 +10638,7 @@
         <v>1111211110</v>
       </c>
       <c r="I11" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J11" s="4">
         <v>12345</v>
@@ -9122,27 +10650,27 @@
         <v>21</v>
       </c>
       <c r="M11" s="6" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="N11" s="14" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="P11" s="4">
         <v>1233568</v>
       </c>
       <c r="Q11" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="R11" s="6" t="s">
         <v>58</v>
-      </c>
-      <c r="R11" s="6" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="12" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B12" s="4">
         <v>123456</v>
@@ -9166,7 +10694,7 @@
         <v>1111222221</v>
       </c>
       <c r="I12" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J12" s="4">
         <v>12345</v>
@@ -9178,27 +10706,27 @@
         <v>21</v>
       </c>
       <c r="M12" s="6" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="N12" s="14" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="P12" s="4">
         <v>1233457</v>
       </c>
       <c r="Q12" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="R12" s="6" t="s">
         <v>61</v>
-      </c>
-      <c r="R12" s="6" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="13" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B13" s="4">
         <v>123456</v>
@@ -9222,7 +10750,7 @@
         <v>1111233332</v>
       </c>
       <c r="I13" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="J13" s="4">
         <v>12345</v>
@@ -9234,27 +10762,27 @@
         <v>21</v>
       </c>
       <c r="M13" s="6" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="N13" s="14" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="P13" s="4">
         <v>1233346</v>
       </c>
       <c r="Q13" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="R13" s="6" t="s">
         <v>64</v>
-      </c>
-      <c r="R13" s="6" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="14" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B14" s="4">
         <v>123456</v>
@@ -9278,7 +10806,7 @@
         <v>1111244443</v>
       </c>
       <c r="I14" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="J14" s="4">
         <v>12345</v>
@@ -9290,27 +10818,27 @@
         <v>21</v>
       </c>
       <c r="M14" s="6" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="N14" s="14" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="P14" s="4">
         <v>1233235</v>
       </c>
       <c r="Q14" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="R14" s="6" t="s">
         <v>67</v>
-      </c>
-      <c r="R14" s="6" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="15" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B15" s="4">
         <v>123456</v>
@@ -9334,39 +10862,39 @@
         <v>1111255554</v>
       </c>
       <c r="I15" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="J15" s="4">
+        <v>12345</v>
+      </c>
+      <c r="K15" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="L15" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="M15" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="N15" s="14" t="s">
+        <v>121</v>
+      </c>
+      <c r="O15" s="7" t="s">
         <v>69</v>
-      </c>
-      <c r="J15" s="4">
-        <v>12345</v>
-      </c>
-      <c r="K15" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="L15" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="M15" s="6" t="s">
-        <v>124</v>
-      </c>
-      <c r="N15" s="14" t="s">
-        <v>123</v>
-      </c>
-      <c r="O15" s="7" t="s">
-        <v>70</v>
       </c>
       <c r="P15" s="4">
         <v>1233124</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="R15" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="16" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B16" s="4">
         <v>123456</v>
@@ -9390,39 +10918,39 @@
         <v>1111266665</v>
       </c>
       <c r="I16" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="J16" s="4">
+        <v>12345</v>
+      </c>
+      <c r="K16" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="L16" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="M16" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="N16" s="14" t="s">
+        <v>121</v>
+      </c>
+      <c r="O16" s="7" t="s">
         <v>72</v>
-      </c>
-      <c r="J16" s="4">
-        <v>12345</v>
-      </c>
-      <c r="K16" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="L16" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="M16" s="6" t="s">
-        <v>124</v>
-      </c>
-      <c r="N16" s="14" t="s">
-        <v>123</v>
-      </c>
-      <c r="O16" s="7" t="s">
-        <v>73</v>
       </c>
       <c r="P16" s="4">
         <v>1233013</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="R16" s="6" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="17" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B17" s="4">
         <v>123456</v>
@@ -9446,7 +10974,7 @@
         <v>1111277776</v>
       </c>
       <c r="I17" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J17" s="4">
         <v>12345</v>
@@ -9458,27 +10986,27 @@
         <v>21</v>
       </c>
       <c r="M17" s="6" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="N17" s="14" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="P17" s="4">
         <v>1232902</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="R17" s="6" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="18" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B18" s="4">
         <v>123456</v>
@@ -9502,7 +11030,7 @@
         <v>1111288887</v>
       </c>
       <c r="I18" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="J18" s="4">
         <v>12345</v>
@@ -9514,27 +11042,27 @@
         <v>21</v>
       </c>
       <c r="M18" s="6" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="N18" s="14" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="P18" s="4">
         <v>1232791</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="R18" s="6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="19" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B19" s="4">
         <v>123456</v>
@@ -9558,7 +11086,7 @@
         <v>1111299998</v>
       </c>
       <c r="I19" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="J19" s="4">
         <v>12345</v>
@@ -9570,27 +11098,27 @@
         <v>21</v>
       </c>
       <c r="M19" s="6" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="N19" s="14" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="P19" s="4">
         <v>1232680</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="R19" s="6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="20" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B20" s="4">
         <v>123456</v>
@@ -9614,7 +11142,7 @@
         <v>1111311109</v>
       </c>
       <c r="I20" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J20" s="4">
         <v>12345</v>
@@ -9626,27 +11154,27 @@
         <v>21</v>
       </c>
       <c r="M20" s="6" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="N20" s="14" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="P20" s="4">
         <v>1232569</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="R20" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="21" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B21" s="4">
         <v>123456</v>
@@ -9670,7 +11198,7 @@
         <v>1111322220</v>
       </c>
       <c r="I21" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J21" s="4">
         <v>12345</v>
@@ -9682,22 +11210,22 @@
         <v>21</v>
       </c>
       <c r="M21" s="6" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="N21" s="14" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="P21" s="4">
         <v>1232458</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="R21" s="6" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="22" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
